--- a/public/dat/B. TECH. I SEM DEC 2020(COVID 19)(1).xlsx
+++ b/public/dat/B. TECH. I SEM DEC 2020(COVID 19)(1).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cloudconvert\server\files\tasks\74abfde7-c757-46e9-aefa-dcfc41cc1e4f\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55975B55-25AD-43F6-8EF0-643D8AC86B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="11520" windowHeight="7875" activeTab="1"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="11520" windowHeight="7872" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="C S" sheetId="6" r:id="rId1"/>
@@ -31,7 +25,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">EE!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">ME!$1:$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2204,9 +2198,6 @@
     <t xml:space="preserve">Prayag Singh Bisht </t>
   </si>
   <si>
-    <t>Divyaman Juguri</t>
-  </si>
-  <si>
     <t>Jai Prakash Jaguri</t>
   </si>
   <si>
@@ -2595,13 +2586,16 @@
   </si>
   <si>
     <t>EXAMINATION  DECEMBER 2020 ( HELD ON JUNE 2021)</t>
+  </si>
+  <si>
+    <t>Divyaman Jaguri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="41" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="41">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3472,14 +3466,26 @@
     <xf numFmtId="2" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3488,18 +3494,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3521,24 +3515,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4615,7 +4609,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F1C834-C9E6-4A52-968B-57591918EDBF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F1C834-C9E6-4A52-968B-57591918EDBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4675,7 +4669,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C7E6EF-06B4-41BB-AB50-97D39F55E95D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C7E6EF-06B4-41BB-AB50-97D39F55E95D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4763,7 +4757,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4795,27 +4789,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4847,24 +4823,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5040,7 +4998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -5050,187 +5008,187 @@
       <selection activeCell="A3" sqref="A3:AF3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="3" width="32.28515625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="15" customWidth="1"/>
-    <col min="8" max="28" width="10.28515625" style="13" customWidth="1"/>
-    <col min="29" max="29" width="18.5703125" style="13" customWidth="1"/>
-    <col min="30" max="30" width="18.85546875" style="13" customWidth="1"/>
-    <col min="31" max="31" width="26.28515625" style="13" customWidth="1"/>
-    <col min="32" max="32" width="44.42578125" style="13" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="9.109375" style="13"/>
+    <col min="2" max="3" width="32.33203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="15" customWidth="1"/>
+    <col min="8" max="28" width="10.33203125" style="13" customWidth="1"/>
+    <col min="29" max="29" width="18.5546875" style="13" customWidth="1"/>
+    <col min="30" max="30" width="18.88671875" style="13" customWidth="1"/>
+    <col min="31" max="31" width="26.33203125" style="13" customWidth="1"/>
+    <col min="32" max="32" width="44.44140625" style="13" customWidth="1"/>
+    <col min="33" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="186" t="s">
+    <row r="1" spans="1:32" ht="48.75" customHeight="1">
+      <c r="A1" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="186"/>
-      <c r="S1" s="186"/>
-      <c r="T1" s="186"/>
-      <c r="U1" s="186"/>
-      <c r="V1" s="186"/>
-      <c r="W1" s="186"/>
-      <c r="X1" s="186"/>
-      <c r="Y1" s="186"/>
-      <c r="Z1" s="186"/>
-      <c r="AA1" s="186"/>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="186"/>
-      <c r="AD1" s="186"/>
-      <c r="AE1" s="186"/>
-      <c r="AF1" s="186"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="180"/>
+      <c r="S1" s="180"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="180"/>
+      <c r="AA1" s="180"/>
+      <c r="AB1" s="180"/>
+      <c r="AC1" s="180"/>
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="180"/>
     </row>
-    <row r="2" spans="1:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="186" t="s">
+    <row r="2" spans="1:32" ht="48.75" customHeight="1">
+      <c r="A2" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="186"/>
-      <c r="AA2" s="186"/>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="186"/>
-      <c r="AD2" s="186"/>
-      <c r="AE2" s="186"/>
-      <c r="AF2" s="186"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="180"/>
+      <c r="AA2" s="180"/>
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="180"/>
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="180"/>
     </row>
-    <row r="3" spans="1:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="185" t="s">
+    <row r="3" spans="1:32" ht="48.75" customHeight="1">
+      <c r="A3" s="179" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="185"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="185"/>
-      <c r="Q3" s="185"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="185"/>
-      <c r="U3" s="185"/>
-      <c r="V3" s="185"/>
-      <c r="W3" s="185"/>
-      <c r="X3" s="185"/>
-      <c r="Y3" s="185"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="185"/>
-      <c r="AD3" s="185"/>
-      <c r="AE3" s="185"/>
-      <c r="AF3" s="185"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="179"/>
+      <c r="Q3" s="179"/>
+      <c r="R3" s="179"/>
+      <c r="S3" s="179"/>
+      <c r="T3" s="179"/>
+      <c r="U3" s="179"/>
+      <c r="V3" s="179"/>
+      <c r="W3" s="179"/>
+      <c r="X3" s="179"/>
+      <c r="Y3" s="179"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="179"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="179"/>
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="179"/>
     </row>
-    <row r="4" spans="1:32" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="180" t="s">
+    <row r="4" spans="1:32" ht="151.5" customHeight="1">
+      <c r="A4" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="180" t="s">
+      <c r="D4" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="187" t="s">
+      <c r="E4" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="187" t="s">
+      <c r="F4" s="183" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="179" t="s">
+      <c r="H4" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179" t="s">
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185" t="s">
+        <v>838</v>
+      </c>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185" t="s">
         <v>839</v>
       </c>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179" t="s">
-        <v>840</v>
-      </c>
-      <c r="O4" s="179"/>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="182" t="s">
+      <c r="O4" s="185"/>
+      <c r="P4" s="185"/>
+      <c r="Q4" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="183"/>
-      <c r="S4" s="184"/>
-      <c r="T4" s="179" t="s">
-        <v>844</v>
-      </c>
-      <c r="U4" s="179"/>
-      <c r="V4" s="179"/>
-      <c r="W4" s="182" t="s">
+      <c r="R4" s="187"/>
+      <c r="S4" s="188"/>
+      <c r="T4" s="185" t="s">
+        <v>843</v>
+      </c>
+      <c r="U4" s="185"/>
+      <c r="V4" s="185"/>
+      <c r="W4" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="183"/>
-      <c r="Y4" s="184"/>
-      <c r="Z4" s="179" t="s">
+      <c r="X4" s="187"/>
+      <c r="Y4" s="188"/>
+      <c r="Z4" s="185" t="s">
         <v>53</v>
       </c>
-      <c r="AA4" s="179"/>
-      <c r="AB4" s="179"/>
+      <c r="AA4" s="185"/>
+      <c r="AB4" s="185"/>
       <c r="AC4" s="62" t="s">
         <v>41</v>
       </c>
@@ -5244,13 +5202,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="180"/>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
+    <row r="5" spans="1:32" ht="57.75" customHeight="1">
+      <c r="A5" s="181"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
       <c r="G5" s="20"/>
       <c r="H5" s="8" t="s">
         <v>6</v>
@@ -5320,13 +5278,13 @@
       <c r="AE5" s="19"/>
       <c r="AF5" s="19"/>
     </row>
-    <row r="6" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="180"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
+    <row r="6" spans="1:32" ht="45" customHeight="1">
+      <c r="A6" s="181"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
       <c r="G6" s="42" t="s">
         <v>2</v>
       </c>
@@ -5410,13 +5368,13 @@
       <c r="AE6" s="21"/>
       <c r="AF6" s="21"/>
     </row>
-    <row r="7" spans="1:32" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="181"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
+    <row r="7" spans="1:32" ht="45.75" customHeight="1">
+      <c r="A7" s="182"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
       <c r="G7" s="22" t="s">
         <v>3</v>
       </c>
@@ -5476,7 +5434,7 @@
       <c r="AE7" s="24"/>
       <c r="AF7" s="24"/>
     </row>
-    <row r="8" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="87.75" customHeight="1">
       <c r="A8" s="124">
         <v>1</v>
       </c>
@@ -5574,11 +5532,11 @@
         <v>651</v>
       </c>
       <c r="AE8" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF8" s="119"/>
     </row>
-    <row r="9" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="87.75" customHeight="1">
       <c r="A9" s="124">
         <v>2</v>
       </c>
@@ -5676,11 +5634,11 @@
         <v>593</v>
       </c>
       <c r="AE9" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF9" s="119"/>
     </row>
-    <row r="10" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="87.75" customHeight="1">
       <c r="A10" s="124">
         <v>3</v>
       </c>
@@ -5778,11 +5736,11 @@
         <v>777</v>
       </c>
       <c r="AE10" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF10" s="119"/>
     </row>
-    <row r="11" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="87.75" customHeight="1">
       <c r="A11" s="124">
         <v>4</v>
       </c>
@@ -5880,11 +5838,11 @@
         <v>769</v>
       </c>
       <c r="AE11" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF11" s="119"/>
     </row>
-    <row r="12" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="87.75" customHeight="1">
       <c r="A12" s="124">
         <v>5</v>
       </c>
@@ -5982,11 +5940,11 @@
         <v>787</v>
       </c>
       <c r="AE12" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF12" s="119"/>
     </row>
-    <row r="13" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="87.75" customHeight="1">
       <c r="A13" s="124">
         <v>6</v>
       </c>
@@ -6084,11 +6042,11 @@
         <v>860</v>
       </c>
       <c r="AE13" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF13" s="119"/>
     </row>
-    <row r="14" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="87.75" customHeight="1">
       <c r="A14" s="124">
         <v>7</v>
       </c>
@@ -6186,11 +6144,11 @@
         <v>733</v>
       </c>
       <c r="AE14" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF14" s="119"/>
     </row>
-    <row r="15" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="87.75" customHeight="1">
       <c r="A15" s="124">
         <v>8</v>
       </c>
@@ -6288,11 +6246,11 @@
         <v>756</v>
       </c>
       <c r="AE15" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF15" s="119"/>
     </row>
-    <row r="16" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="87.75" customHeight="1">
       <c r="A16" s="124">
         <v>9</v>
       </c>
@@ -6390,11 +6348,11 @@
         <v>794</v>
       </c>
       <c r="AE16" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF16" s="119"/>
     </row>
-    <row r="17" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="87.75" customHeight="1">
       <c r="A17" s="124">
         <v>10</v>
       </c>
@@ -6492,11 +6450,11 @@
         <v>849</v>
       </c>
       <c r="AE17" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF17" s="119"/>
     </row>
-    <row r="18" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="87.75" customHeight="1">
       <c r="A18" s="124">
         <v>11</v>
       </c>
@@ -6594,11 +6552,11 @@
         <v>741</v>
       </c>
       <c r="AE18" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF18" s="119"/>
     </row>
-    <row r="19" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="87.75" customHeight="1">
       <c r="A19" s="124">
         <v>12</v>
       </c>
@@ -6696,11 +6654,11 @@
         <v>654</v>
       </c>
       <c r="AE19" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF19" s="119"/>
     </row>
-    <row r="20" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="87.75" customHeight="1">
       <c r="A20" s="124">
         <v>13</v>
       </c>
@@ -6798,11 +6756,11 @@
         <v>745</v>
       </c>
       <c r="AE20" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF20" s="119"/>
     </row>
-    <row r="21" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="87.75" customHeight="1">
       <c r="A21" s="124">
         <v>14</v>
       </c>
@@ -6900,11 +6858,11 @@
         <v>746</v>
       </c>
       <c r="AE21" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF21" s="119"/>
     </row>
-    <row r="22" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="87.75" customHeight="1">
       <c r="A22" s="124">
         <v>15</v>
       </c>
@@ -7002,11 +6960,11 @@
         <v>764</v>
       </c>
       <c r="AE22" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF22" s="119"/>
     </row>
-    <row r="23" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="87.75" customHeight="1">
       <c r="A23" s="124">
         <v>16</v>
       </c>
@@ -7104,11 +7062,11 @@
         <v>784</v>
       </c>
       <c r="AE23" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF23" s="119"/>
     </row>
-    <row r="24" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="87.75" customHeight="1">
       <c r="A24" s="124">
         <v>17</v>
       </c>
@@ -7206,11 +7164,11 @@
         <v>778</v>
       </c>
       <c r="AE24" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF24" s="119"/>
     </row>
-    <row r="25" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="87.75" customHeight="1">
       <c r="A25" s="124">
         <v>18</v>
       </c>
@@ -7308,11 +7266,11 @@
         <v>766</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF25" s="119"/>
     </row>
-    <row r="26" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="87.75" customHeight="1">
       <c r="A26" s="124">
         <v>19</v>
       </c>
@@ -7410,11 +7368,11 @@
         <v>665</v>
       </c>
       <c r="AE26" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF26" s="119"/>
     </row>
-    <row r="27" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="87.75" customHeight="1">
       <c r="A27" s="124">
         <v>20</v>
       </c>
@@ -7435,7 +7393,7 @@
       </c>
       <c r="G27" s="127"/>
       <c r="H27" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I27" s="68">
         <v>41</v>
@@ -7512,13 +7470,13 @@
         <v>580</v>
       </c>
       <c r="AE27" s="131" t="s">
+        <v>826</v>
+      </c>
+      <c r="AF27" s="119" t="s">
         <v>827</v>
       </c>
-      <c r="AF27" s="119" t="s">
-        <v>828</v>
-      </c>
     </row>
-    <row r="28" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="87.75" customHeight="1">
       <c r="A28" s="124">
         <v>21</v>
       </c>
@@ -7616,11 +7574,11 @@
         <v>675</v>
       </c>
       <c r="AE28" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF28" s="119"/>
     </row>
-    <row r="29" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="87.75" customHeight="1">
       <c r="A29" s="124">
         <v>22</v>
       </c>
@@ -7718,11 +7676,11 @@
         <v>793</v>
       </c>
       <c r="AE29" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF29" s="119"/>
     </row>
-    <row r="30" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="87.75" customHeight="1">
       <c r="A30" s="124">
         <v>23</v>
       </c>
@@ -7820,11 +7778,11 @@
         <v>769</v>
       </c>
       <c r="AE30" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF30" s="119"/>
     </row>
-    <row r="31" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="87.75" customHeight="1">
       <c r="A31" s="124">
         <v>24</v>
       </c>
@@ -7865,7 +7823,7 @@
         <v>117</v>
       </c>
       <c r="N31" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O31" s="67">
         <v>47</v>
@@ -7922,13 +7880,13 @@
         <v>607</v>
       </c>
       <c r="AE31" s="131" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AF31" s="119" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="87.75" customHeight="1">
       <c r="A32" s="124">
         <v>25</v>
       </c>
@@ -8026,11 +7984,11 @@
         <v>769</v>
       </c>
       <c r="AE32" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF32" s="119"/>
     </row>
-    <row r="33" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="87.75" customHeight="1">
       <c r="A33" s="124">
         <v>26</v>
       </c>
@@ -8128,11 +8086,11 @@
         <v>839</v>
       </c>
       <c r="AE33" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF33" s="119"/>
     </row>
-    <row r="34" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" ht="87.75" customHeight="1">
       <c r="A34" s="124">
         <v>27</v>
       </c>
@@ -8230,11 +8188,11 @@
         <v>805</v>
       </c>
       <c r="AE34" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF34" s="119"/>
     </row>
-    <row r="35" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" ht="87.75" customHeight="1">
       <c r="A35" s="124">
         <v>28</v>
       </c>
@@ -8332,11 +8290,11 @@
         <v>772</v>
       </c>
       <c r="AE35" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF35" s="119"/>
     </row>
-    <row r="36" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" ht="87.75" customHeight="1">
       <c r="A36" s="124">
         <v>29</v>
       </c>
@@ -8434,11 +8392,11 @@
         <v>739</v>
       </c>
       <c r="AE36" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF36" s="119"/>
     </row>
-    <row r="37" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" ht="87.75" customHeight="1">
       <c r="A37" s="124">
         <v>30</v>
       </c>
@@ -8536,11 +8494,11 @@
         <v>661</v>
       </c>
       <c r="AE37" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF37" s="119"/>
     </row>
-    <row r="38" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" ht="87.75" customHeight="1">
       <c r="A38" s="124">
         <v>31</v>
       </c>
@@ -8638,11 +8596,11 @@
         <v>736</v>
       </c>
       <c r="AE38" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF38" s="119"/>
     </row>
-    <row r="39" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" ht="87.75" customHeight="1">
       <c r="A39" s="124">
         <v>32</v>
       </c>
@@ -8740,11 +8698,11 @@
         <v>823</v>
       </c>
       <c r="AE39" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF39" s="119"/>
     </row>
-    <row r="40" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" ht="87.75" customHeight="1">
       <c r="A40" s="124">
         <v>33</v>
       </c>
@@ -8765,27 +8723,27 @@
       </c>
       <c r="G40" s="127"/>
       <c r="H40" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I40" s="68" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J40" s="128">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K40" s="68" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L40" s="133" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="M40" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N40" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O40" s="67">
         <v>18</v>
@@ -8795,7 +8753,7 @@
         <v>18</v>
       </c>
       <c r="Q40" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="R40" s="67">
         <v>3</v>
@@ -8805,7 +8763,7 @@
         <v>3</v>
       </c>
       <c r="T40" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="U40" s="67">
         <v>0</v>
@@ -8815,20 +8773,20 @@
         <v>0</v>
       </c>
       <c r="W40" s="68" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="X40" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Y40" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z40" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AA40" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AB40" s="65">
         <f t="shared" si="6"/>
@@ -8842,11 +8800,11 @@
         <v>21</v>
       </c>
       <c r="AE40" s="134" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AF40" s="119"/>
     </row>
-    <row r="41" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" ht="87.75" customHeight="1">
       <c r="A41" s="124">
         <v>34</v>
       </c>
@@ -8887,7 +8845,7 @@
         <v>156</v>
       </c>
       <c r="N41" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O41" s="67">
         <v>49</v>
@@ -8944,13 +8902,13 @@
         <v>715</v>
       </c>
       <c r="AE41" s="131" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AF41" s="119" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" ht="87.75" customHeight="1">
       <c r="A42" s="124">
         <v>35</v>
       </c>
@@ -9048,11 +9006,11 @@
         <v>827</v>
       </c>
       <c r="AE42" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF42" s="119"/>
     </row>
-    <row r="43" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" ht="87.75" customHeight="1">
       <c r="A43" s="124">
         <v>36</v>
       </c>
@@ -9150,11 +9108,11 @@
         <v>811</v>
       </c>
       <c r="AE43" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF43" s="119"/>
     </row>
-    <row r="44" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" ht="87.75" customHeight="1">
       <c r="A44" s="124">
         <v>37</v>
       </c>
@@ -9252,11 +9210,11 @@
         <v>823</v>
       </c>
       <c r="AE44" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF44" s="119"/>
     </row>
-    <row r="45" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" ht="87.75" customHeight="1">
       <c r="A45" s="124">
         <v>38</v>
       </c>
@@ -9354,13 +9312,13 @@
         <v>532</v>
       </c>
       <c r="AE45" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF45" s="119" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" ht="87.75" customHeight="1">
       <c r="A46" s="124">
         <v>39</v>
       </c>
@@ -9434,7 +9392,7 @@
         <v>21</v>
       </c>
       <c r="X46" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Y46" s="65">
         <f t="shared" si="5"/>
@@ -9458,13 +9416,13 @@
         <v>517</v>
       </c>
       <c r="AE46" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF46" s="119" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" ht="87.75" customHeight="1">
       <c r="A47" s="124">
         <v>40</v>
       </c>
@@ -9562,11 +9520,11 @@
         <v>719</v>
       </c>
       <c r="AE47" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF47" s="119"/>
     </row>
-    <row r="48" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" ht="87.75" customHeight="1">
       <c r="A48" s="124">
         <v>41</v>
       </c>
@@ -9664,13 +9622,13 @@
         <v>457</v>
       </c>
       <c r="AE48" s="131" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AF48" s="119" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" ht="87.75" customHeight="1">
       <c r="A49" s="124">
         <v>42</v>
       </c>
@@ -9768,11 +9726,11 @@
         <v>753</v>
       </c>
       <c r="AE49" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF49" s="119"/>
     </row>
-    <row r="50" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" ht="87.75" customHeight="1">
       <c r="A50" s="124">
         <v>43</v>
       </c>
@@ -9870,11 +9828,11 @@
         <v>844</v>
       </c>
       <c r="AE50" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF50" s="119"/>
     </row>
-    <row r="51" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" ht="87.75" customHeight="1">
       <c r="A51" s="124">
         <v>44</v>
       </c>
@@ -9972,11 +9930,11 @@
         <v>787</v>
       </c>
       <c r="AE51" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF51" s="119"/>
     </row>
-    <row r="52" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" ht="87.75" customHeight="1">
       <c r="A52" s="124">
         <v>45</v>
       </c>
@@ -10074,11 +10032,11 @@
         <v>693</v>
       </c>
       <c r="AE52" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF52" s="119"/>
     </row>
-    <row r="53" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" ht="87.75" customHeight="1">
       <c r="A53" s="124">
         <v>46</v>
       </c>
@@ -10176,11 +10134,11 @@
         <v>676</v>
       </c>
       <c r="AE53" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF53" s="119"/>
     </row>
-    <row r="54" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" ht="87.75" customHeight="1">
       <c r="A54" s="124">
         <v>47</v>
       </c>
@@ -10278,11 +10236,11 @@
         <v>713</v>
       </c>
       <c r="AE54" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF54" s="119"/>
     </row>
-    <row r="55" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" ht="87.75" customHeight="1">
       <c r="A55" s="124">
         <v>48</v>
       </c>
@@ -10380,11 +10338,11 @@
         <v>746</v>
       </c>
       <c r="AE55" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF55" s="119"/>
     </row>
-    <row r="56" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" ht="87.75" customHeight="1">
       <c r="A56" s="124">
         <v>49</v>
       </c>
@@ -10482,11 +10440,11 @@
         <v>769</v>
       </c>
       <c r="AE56" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF56" s="119"/>
     </row>
-    <row r="57" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" ht="87.75" customHeight="1">
       <c r="A57" s="124">
         <v>50</v>
       </c>
@@ -10584,11 +10542,11 @@
         <v>720</v>
       </c>
       <c r="AE57" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF57" s="119"/>
     </row>
-    <row r="58" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" ht="87.75" customHeight="1">
       <c r="A58" s="124">
         <v>51</v>
       </c>
@@ -10686,11 +10644,11 @@
         <v>792</v>
       </c>
       <c r="AE58" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF58" s="119"/>
     </row>
-    <row r="59" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" ht="87.75" customHeight="1">
       <c r="A59" s="124">
         <v>52</v>
       </c>
@@ -10788,11 +10746,11 @@
         <v>807</v>
       </c>
       <c r="AE59" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF59" s="119"/>
     </row>
-    <row r="60" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" ht="87.75" customHeight="1">
       <c r="A60" s="124">
         <v>53</v>
       </c>
@@ -10890,11 +10848,11 @@
         <v>834</v>
       </c>
       <c r="AE60" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF60" s="138"/>
     </row>
-    <row r="61" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" ht="87.75" customHeight="1">
       <c r="A61" s="124">
         <v>54</v>
       </c>
@@ -10992,11 +10950,11 @@
         <v>875</v>
       </c>
       <c r="AE61" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF61" s="119"/>
     </row>
-    <row r="62" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" ht="87.75" customHeight="1">
       <c r="A62" s="124">
         <v>55</v>
       </c>
@@ -11094,11 +11052,11 @@
         <v>731</v>
       </c>
       <c r="AE62" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF62" s="119"/>
     </row>
-    <row r="63" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" ht="87.75" customHeight="1">
       <c r="A63" s="124">
         <v>56</v>
       </c>
@@ -11196,11 +11154,11 @@
         <v>836</v>
       </c>
       <c r="AE63" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF63" s="119"/>
     </row>
-    <row r="64" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" ht="87.75" customHeight="1">
       <c r="A64" s="124">
         <v>57</v>
       </c>
@@ -11298,11 +11256,11 @@
         <v>860</v>
       </c>
       <c r="AE64" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF64" s="119"/>
     </row>
-    <row r="65" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" ht="87.75" customHeight="1">
       <c r="A65" s="124">
         <v>58</v>
       </c>
@@ -11400,11 +11358,11 @@
         <v>791</v>
       </c>
       <c r="AE65" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF65" s="124"/>
     </row>
-    <row r="66" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:32" ht="87.75" customHeight="1">
       <c r="A66" s="124">
         <v>59</v>
       </c>
@@ -11502,11 +11460,11 @@
         <v>783</v>
       </c>
       <c r="AE66" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF66" s="141"/>
     </row>
-    <row r="67" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" ht="87.75" customHeight="1">
       <c r="A67" s="124">
         <v>60</v>
       </c>
@@ -11604,11 +11562,11 @@
         <v>808</v>
       </c>
       <c r="AE67" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF67" s="124"/>
     </row>
-    <row r="68" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" ht="87.75" customHeight="1">
       <c r="A68" s="124">
         <v>61</v>
       </c>
@@ -11706,13 +11664,13 @@
         <v>609</v>
       </c>
       <c r="AE68" s="131" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AF68" s="119" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" ht="87.75" customHeight="1">
       <c r="A69" s="124">
         <v>62</v>
       </c>
@@ -11810,11 +11768,11 @@
         <v>673</v>
       </c>
       <c r="AE69" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF69" s="124"/>
     </row>
-    <row r="70" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" ht="87.75" customHeight="1">
       <c r="A70" s="124">
         <v>63</v>
       </c>
@@ -11912,11 +11870,11 @@
         <v>739</v>
       </c>
       <c r="AE70" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF70" s="124"/>
     </row>
-    <row r="71" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" ht="87.75" customHeight="1">
       <c r="A71" s="124">
         <v>64</v>
       </c>
@@ -12014,11 +11972,11 @@
         <v>790</v>
       </c>
       <c r="AE71" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF71" s="124"/>
     </row>
-    <row r="72" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" ht="87.75" customHeight="1">
       <c r="A72" s="124">
         <v>65</v>
       </c>
@@ -12116,7 +12074,7 @@
         <v>820</v>
       </c>
       <c r="AE72" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF72" s="124"/>
     </row>
@@ -12184,29 +12142,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G4" sqref="A4:IV4"/>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G4" sqref="A4:IV7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="28" width="8.7109375" customWidth="1"/>
-    <col min="29" max="29" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="28" width="8.6640625" customWidth="1"/>
+    <col min="29" max="29" width="19.109375" customWidth="1"/>
     <col min="30" max="30" width="18" customWidth="1"/>
-    <col min="31" max="31" width="28.140625" customWidth="1"/>
-    <col min="32" max="32" width="60.5703125" customWidth="1"/>
+    <col min="31" max="31" width="28.109375" customWidth="1"/>
+    <col min="32" max="32" width="60.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="43" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="43" customFormat="1" ht="28.5" customHeight="1">
       <c r="A1" s="189" t="s">
         <v>17</v>
       </c>
@@ -12242,7 +12200,7 @@
       <c r="AE1" s="189"/>
       <c r="AF1" s="189"/>
     </row>
-    <row r="2" spans="1:32" s="43" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="43" customFormat="1" ht="66.75" customHeight="1">
       <c r="A2" s="189" t="s">
         <v>21</v>
       </c>
@@ -12278,7 +12236,7 @@
       <c r="AE2" s="189"/>
       <c r="AF2" s="189"/>
     </row>
-    <row r="3" spans="1:32" s="43" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" s="43" customFormat="1" ht="66.75" customHeight="1">
       <c r="A3" s="190" t="s">
         <v>58</v>
       </c>
@@ -12314,63 +12272,63 @@
       <c r="AE3" s="190"/>
       <c r="AF3" s="190"/>
     </row>
-    <row r="4" spans="1:32" ht="162.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="180" t="s">
+    <row r="4" spans="1:32" ht="162.75" customHeight="1">
+      <c r="A4" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="180" t="s">
+      <c r="D4" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="187" t="s">
+      <c r="E4" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="187" t="s">
+      <c r="F4" s="183" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="179" t="s">
+      <c r="H4" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179" t="s">
-        <v>839</v>
-      </c>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179" t="s">
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185" t="s">
+        <v>838</v>
+      </c>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="179"/>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="179" t="s">
+      <c r="O4" s="185"/>
+      <c r="P4" s="185"/>
+      <c r="Q4" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="179"/>
-      <c r="S4" s="179"/>
-      <c r="T4" s="179" t="s">
+      <c r="R4" s="185"/>
+      <c r="S4" s="185"/>
+      <c r="T4" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="179"/>
-      <c r="V4" s="179"/>
-      <c r="W4" s="179" t="s">
-        <v>841</v>
-      </c>
-      <c r="X4" s="179"/>
-      <c r="Y4" s="179"/>
-      <c r="Z4" s="179" t="s">
+      <c r="U4" s="185"/>
+      <c r="V4" s="185"/>
+      <c r="W4" s="185" t="s">
+        <v>840</v>
+      </c>
+      <c r="X4" s="185"/>
+      <c r="Y4" s="185"/>
+      <c r="Z4" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="179"/>
-      <c r="AB4" s="179"/>
+      <c r="AA4" s="185"/>
+      <c r="AB4" s="185"/>
       <c r="AC4" s="59" t="s">
         <v>29</v>
       </c>
@@ -12384,13 +12342,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="180"/>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
+    <row r="5" spans="1:32" ht="47.25" customHeight="1">
+      <c r="A5" s="181"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
       <c r="G5" s="27"/>
       <c r="H5" s="7" t="s">
         <v>6</v>
@@ -12460,13 +12418,13 @@
       <c r="AE5" s="27"/>
       <c r="AF5" s="19"/>
     </row>
-    <row r="6" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="180"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
+    <row r="6" spans="1:32" ht="47.25" customHeight="1">
+      <c r="A6" s="181"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
       <c r="G6" s="45" t="s">
         <v>2</v>
       </c>
@@ -12550,13 +12508,13 @@
       <c r="AE6" s="48"/>
       <c r="AF6" s="86"/>
     </row>
-    <row r="7" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="181"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
+    <row r="7" spans="1:32" ht="47.25" customHeight="1">
+      <c r="A7" s="182"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
       <c r="G7" s="46" t="s">
         <v>3</v>
       </c>
@@ -12616,7 +12574,7 @@
       <c r="AE7" s="41"/>
       <c r="AF7" s="87"/>
     </row>
-    <row r="8" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="77.25" customHeight="1">
       <c r="A8" s="124">
         <v>1</v>
       </c>
@@ -12714,13 +12672,13 @@
         <v>568</v>
       </c>
       <c r="AE8" s="131" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AF8" s="119" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="77.25" customHeight="1">
       <c r="A9" s="124">
         <v>2</v>
       </c>
@@ -12818,11 +12776,11 @@
         <v>679</v>
       </c>
       <c r="AE9" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF9" s="119"/>
     </row>
-    <row r="10" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="77.25" customHeight="1">
       <c r="A10" s="124">
         <v>3</v>
       </c>
@@ -12920,11 +12878,11 @@
         <v>588</v>
       </c>
       <c r="AE10" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF10" s="119"/>
     </row>
-    <row r="11" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="77.25" customHeight="1">
       <c r="A11" s="124">
         <v>4</v>
       </c>
@@ -13022,11 +12980,11 @@
         <v>749</v>
       </c>
       <c r="AE11" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF11" s="119"/>
     </row>
-    <row r="12" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="77.25" customHeight="1">
       <c r="A12" s="124">
         <v>5</v>
       </c>
@@ -13124,11 +13082,11 @@
         <v>596</v>
       </c>
       <c r="AE12" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF12" s="119"/>
     </row>
-    <row r="13" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="77.25" customHeight="1">
       <c r="A13" s="124">
         <v>6</v>
       </c>
@@ -13226,11 +13184,11 @@
         <v>558</v>
       </c>
       <c r="AE13" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF13" s="119"/>
     </row>
-    <row r="14" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="77.25" customHeight="1">
       <c r="A14" s="124">
         <v>7</v>
       </c>
@@ -13328,11 +13286,11 @@
         <v>658</v>
       </c>
       <c r="AE14" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF14" s="119"/>
     </row>
-    <row r="15" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="77.25" customHeight="1">
       <c r="A15" s="124">
         <v>8</v>
       </c>
@@ -13366,7 +13324,7 @@
         <v>82</v>
       </c>
       <c r="L15" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="M15" s="65">
         <f t="shared" si="1"/>
@@ -13430,11 +13388,11 @@
         <v>601</v>
       </c>
       <c r="AE15" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF15" s="119"/>
     </row>
-    <row r="16" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="77.25" customHeight="1">
       <c r="A16" s="124">
         <v>9</v>
       </c>
@@ -13532,13 +13490,13 @@
         <v>594</v>
       </c>
       <c r="AE16" s="131" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AF16" s="119" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="77.25" customHeight="1">
       <c r="A17" s="124">
         <v>10</v>
       </c>
@@ -13636,11 +13594,11 @@
         <v>604</v>
       </c>
       <c r="AE17" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF17" s="119"/>
     </row>
-    <row r="18" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="77.25" customHeight="1">
       <c r="A18" s="124">
         <v>11</v>
       </c>
@@ -13738,11 +13696,11 @@
         <v>624</v>
       </c>
       <c r="AE18" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF18" s="119"/>
     </row>
-    <row r="19" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="77.25" customHeight="1">
       <c r="A19" s="124">
         <v>12</v>
       </c>
@@ -13840,11 +13798,11 @@
         <v>670</v>
       </c>
       <c r="AE19" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF19" s="119"/>
     </row>
-    <row r="20" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="77.25" customHeight="1">
       <c r="A20" s="124">
         <v>13</v>
       </c>
@@ -13942,11 +13900,11 @@
         <v>667</v>
       </c>
       <c r="AE20" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF20" s="119"/>
     </row>
-    <row r="21" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="77.25" customHeight="1">
       <c r="A21" s="124">
         <v>14</v>
       </c>
@@ -14044,11 +14002,11 @@
         <v>648</v>
       </c>
       <c r="AE21" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF21" s="119"/>
     </row>
-    <row r="22" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="77.25" customHeight="1">
       <c r="A22" s="124">
         <v>15</v>
       </c>
@@ -14146,11 +14104,11 @@
         <v>677</v>
       </c>
       <c r="AE22" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF22" s="119"/>
     </row>
-    <row r="23" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="77.25" customHeight="1">
       <c r="A23" s="124">
         <v>16</v>
       </c>
@@ -14248,11 +14206,11 @@
         <v>611</v>
       </c>
       <c r="AE23" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF23" s="119"/>
     </row>
-    <row r="24" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="77.25" customHeight="1">
       <c r="A24" s="124">
         <v>17</v>
       </c>
@@ -14350,11 +14308,11 @@
         <v>598</v>
       </c>
       <c r="AE24" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF24" s="119"/>
     </row>
-    <row r="25" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="77.25" customHeight="1">
       <c r="A25" s="124">
         <v>18</v>
       </c>
@@ -14452,11 +14410,11 @@
         <v>629</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF25" s="119"/>
     </row>
-    <row r="26" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="77.25" customHeight="1">
       <c r="A26" s="124">
         <v>19</v>
       </c>
@@ -14554,11 +14512,11 @@
         <v>545</v>
       </c>
       <c r="AE26" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF26" s="119"/>
     </row>
-    <row r="27" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="77.25" customHeight="1">
       <c r="A27" s="124">
         <v>20</v>
       </c>
@@ -14656,11 +14614,11 @@
         <v>637</v>
       </c>
       <c r="AE27" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF27" s="119"/>
     </row>
-    <row r="28" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="77.25" customHeight="1">
       <c r="A28" s="124">
         <v>21</v>
       </c>
@@ -14758,11 +14716,11 @@
         <v>670</v>
       </c>
       <c r="AE28" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF28" s="119"/>
     </row>
-    <row r="29" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="77.25" customHeight="1">
       <c r="A29" s="124">
         <v>22</v>
       </c>
@@ -14860,11 +14818,11 @@
         <v>592</v>
       </c>
       <c r="AE29" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF29" s="119"/>
     </row>
-    <row r="30" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="77.25" customHeight="1">
       <c r="A30" s="124">
         <v>23</v>
       </c>
@@ -14962,11 +14920,11 @@
         <v>685</v>
       </c>
       <c r="AE30" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF30" s="119"/>
     </row>
-    <row r="31" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="77.25" customHeight="1">
       <c r="A31" s="124">
         <v>24</v>
       </c>
@@ -15064,11 +15022,11 @@
         <v>672</v>
       </c>
       <c r="AE31" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF31" s="119"/>
     </row>
-    <row r="32" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="77.25" customHeight="1">
       <c r="A32" s="124">
         <v>25</v>
       </c>
@@ -15166,11 +15124,11 @@
         <v>726</v>
       </c>
       <c r="AE32" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF32" s="119"/>
     </row>
-    <row r="33" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="77.25" customHeight="1">
       <c r="A33" s="124">
         <v>26</v>
       </c>
@@ -15268,11 +15226,11 @@
         <v>588</v>
       </c>
       <c r="AE33" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF33" s="119"/>
     </row>
-    <row r="34" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" ht="77.25" customHeight="1">
       <c r="A34" s="124">
         <v>27</v>
       </c>
@@ -15370,11 +15328,11 @@
         <v>628</v>
       </c>
       <c r="AE34" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF34" s="119"/>
     </row>
-    <row r="35" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" ht="77.25" customHeight="1">
       <c r="A35" s="124">
         <v>28</v>
       </c>
@@ -15472,11 +15430,11 @@
         <v>557</v>
       </c>
       <c r="AE35" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF35" s="119"/>
     </row>
-    <row r="36" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" ht="77.25" customHeight="1">
       <c r="A36" s="124">
         <v>29</v>
       </c>
@@ -15574,11 +15532,11 @@
         <v>649</v>
       </c>
       <c r="AE36" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF36" s="119"/>
     </row>
-    <row r="37" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" ht="77.25" customHeight="1">
       <c r="A37" s="124">
         <v>30</v>
       </c>
@@ -15676,11 +15634,11 @@
         <v>705</v>
       </c>
       <c r="AE37" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF37" s="119"/>
     </row>
-    <row r="38" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" ht="77.25" customHeight="1">
       <c r="A38" s="124">
         <v>31</v>
       </c>
@@ -15778,11 +15736,11 @@
         <v>695</v>
       </c>
       <c r="AE38" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF38" s="119"/>
     </row>
-    <row r="39" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" ht="77.25" customHeight="1">
       <c r="A39" s="124">
         <v>32</v>
       </c>
@@ -15880,11 +15838,11 @@
         <v>523</v>
       </c>
       <c r="AE39" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF39" s="119"/>
     </row>
-    <row r="40" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" ht="77.25" customHeight="1">
       <c r="A40" s="124">
         <v>33</v>
       </c>
@@ -15982,11 +15940,11 @@
         <v>497</v>
       </c>
       <c r="AE40" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF40" s="119"/>
     </row>
-    <row r="41" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" ht="77.25" customHeight="1">
       <c r="A41" s="124">
         <v>34</v>
       </c>
@@ -16084,11 +16042,11 @@
         <v>591</v>
       </c>
       <c r="AE41" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF41" s="119"/>
     </row>
-    <row r="42" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" ht="77.25" customHeight="1">
       <c r="A42" s="124">
         <v>35</v>
       </c>
@@ -16186,13 +16144,13 @@
         <v>529</v>
       </c>
       <c r="AE42" s="131" t="s">
+        <v>824</v>
+      </c>
+      <c r="AF42" s="119" t="s">
         <v>825</v>
       </c>
-      <c r="AF42" s="119" t="s">
-        <v>826</v>
-      </c>
     </row>
-    <row r="43" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" ht="77.25" customHeight="1">
       <c r="A43" s="124">
         <v>36</v>
       </c>
@@ -16290,11 +16248,11 @@
         <v>645</v>
       </c>
       <c r="AE43" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF43" s="119"/>
     </row>
-    <row r="44" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" ht="77.25" customHeight="1">
       <c r="A44" s="124">
         <v>37</v>
       </c>
@@ -16392,11 +16350,11 @@
         <v>665</v>
       </c>
       <c r="AE44" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF44" s="119"/>
     </row>
-    <row r="45" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" ht="77.25" customHeight="1">
       <c r="A45" s="124">
         <v>38</v>
       </c>
@@ -16494,11 +16452,11 @@
         <v>543</v>
       </c>
       <c r="AE45" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF45" s="119"/>
     </row>
-    <row r="46" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" ht="77.25" customHeight="1">
       <c r="A46" s="124">
         <v>39</v>
       </c>
@@ -16532,7 +16490,7 @@
         <v>66</v>
       </c>
       <c r="L46" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="M46" s="65">
         <f t="shared" si="1"/>
@@ -16596,13 +16554,13 @@
         <v>526</v>
       </c>
       <c r="AE46" s="131" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AF46" s="119" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" ht="77.25" customHeight="1">
       <c r="A47" s="124">
         <v>40</v>
       </c>
@@ -16700,13 +16658,13 @@
         <v>586</v>
       </c>
       <c r="AE47" s="131" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AF47" s="119" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" ht="77.25" customHeight="1">
       <c r="A48" s="124">
         <v>41</v>
       </c>
@@ -16804,11 +16762,11 @@
         <v>625</v>
       </c>
       <c r="AE48" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF48" s="119"/>
     </row>
-    <row r="49" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" ht="77.25" customHeight="1">
       <c r="A49" s="124">
         <v>42</v>
       </c>
@@ -16906,11 +16864,11 @@
         <v>655</v>
       </c>
       <c r="AE49" s="130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF49" s="119"/>
     </row>
-    <row r="50" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" ht="22.5" customHeight="1">
       <c r="G50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -16927,7 +16885,7 @@
       <c r="AE50" s="9"/>
       <c r="AF50" s="9"/>
     </row>
-    <row r="53" spans="1:32" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32" ht="34.5" customHeight="1">
       <c r="B53" s="191"/>
       <c r="C53" s="192"/>
       <c r="D53" s="192"/>
@@ -16941,11 +16899,6 @@
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:AF2"/>
     <mergeCell ref="A3:AF3"/>
@@ -16953,6 +16906,11 @@
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="F4:F7"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <conditionalFormatting sqref="Q8:Q49">
     <cfRule type="cellIs" dxfId="87" priority="21" stopIfTrue="1" operator="lessThan">
@@ -17004,34 +16962,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G4" sqref="A4:IV4"/>
+    <sheetView topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="16" customWidth="1"/>
-    <col min="2" max="3" width="29.5703125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="16" customWidth="1"/>
-    <col min="5" max="6" width="33.140625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="16" customWidth="1"/>
-    <col min="8" max="11" width="9.28515625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="44" customWidth="1"/>
-    <col min="13" max="15" width="9.28515625" style="16" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="16" customWidth="1"/>
-    <col min="17" max="28" width="9.28515625" style="16" customWidth="1"/>
-    <col min="29" max="29" width="13.85546875" style="16" customWidth="1"/>
-    <col min="30" max="30" width="16.42578125" style="16" customWidth="1"/>
-    <col min="31" max="31" width="22.42578125" style="16" customWidth="1"/>
-    <col min="32" max="32" width="74.5703125" style="16" customWidth="1"/>
-    <col min="33" max="33" width="21.5703125" style="16" customWidth="1"/>
-    <col min="34" max="16384" width="6.42578125" style="16"/>
+    <col min="1" max="1" width="13.88671875" style="16" customWidth="1"/>
+    <col min="2" max="3" width="29.5546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="16" customWidth="1"/>
+    <col min="5" max="6" width="33.109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="16" customWidth="1"/>
+    <col min="8" max="11" width="9.33203125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="44" customWidth="1"/>
+    <col min="13" max="15" width="9.33203125" style="16" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" style="16" customWidth="1"/>
+    <col min="17" max="28" width="9.33203125" style="16" customWidth="1"/>
+    <col min="29" max="29" width="13.88671875" style="16" customWidth="1"/>
+    <col min="30" max="30" width="16.44140625" style="16" customWidth="1"/>
+    <col min="31" max="31" width="22.44140625" style="16" customWidth="1"/>
+    <col min="32" max="32" width="74.5546875" style="16" customWidth="1"/>
+    <col min="33" max="33" width="21.5546875" style="16" customWidth="1"/>
+    <col min="34" max="16384" width="6.44140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="57" customHeight="1">
       <c r="A1" s="189" t="s">
         <v>18</v>
       </c>
@@ -17067,7 +17025,7 @@
       <c r="AE1" s="189"/>
       <c r="AF1" s="189"/>
     </row>
-    <row r="2" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="57" customHeight="1">
       <c r="A2" s="189" t="s">
         <v>21</v>
       </c>
@@ -17103,7 +17061,7 @@
       <c r="AE2" s="189"/>
       <c r="AF2" s="189"/>
     </row>
-    <row r="3" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="57" customHeight="1">
       <c r="A3" s="190" t="s">
         <v>59</v>
       </c>
@@ -17139,63 +17097,63 @@
       <c r="AE3" s="190"/>
       <c r="AF3" s="190"/>
     </row>
-    <row r="4" spans="1:33" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="180" t="s">
+    <row r="4" spans="1:33" ht="145.5" customHeight="1">
+      <c r="A4" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="180" t="s">
+      <c r="D4" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="187" t="s">
+      <c r="E4" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="187" t="s">
+      <c r="F4" s="183" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="179" t="s">
+      <c r="H4" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179" t="s">
-        <v>839</v>
-      </c>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179" t="s">
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185" t="s">
+        <v>838</v>
+      </c>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="179"/>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="182" t="s">
+      <c r="O4" s="185"/>
+      <c r="P4" s="185"/>
+      <c r="Q4" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="183"/>
-      <c r="S4" s="184"/>
-      <c r="T4" s="179" t="s">
+      <c r="R4" s="187"/>
+      <c r="S4" s="188"/>
+      <c r="T4" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="U4" s="179"/>
-      <c r="V4" s="179"/>
-      <c r="W4" s="182" t="s">
+      <c r="U4" s="185"/>
+      <c r="V4" s="185"/>
+      <c r="W4" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="183"/>
-      <c r="Y4" s="184"/>
-      <c r="Z4" s="179" t="s">
+      <c r="X4" s="187"/>
+      <c r="Y4" s="188"/>
+      <c r="Z4" s="185" t="s">
         <v>43</v>
       </c>
-      <c r="AA4" s="179"/>
-      <c r="AB4" s="179"/>
+      <c r="AA4" s="185"/>
+      <c r="AB4" s="185"/>
       <c r="AC4" s="59" t="s">
         <v>30</v>
       </c>
@@ -17209,13 +17167,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="180"/>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
+    <row r="5" spans="1:33" ht="35.25" customHeight="1">
+      <c r="A5" s="181"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
       <c r="G5" s="45"/>
       <c r="H5" s="39" t="s">
         <v>6</v>
@@ -17285,13 +17243,13 @@
       <c r="AE5" s="19"/>
       <c r="AF5" s="19"/>
     </row>
-    <row r="6" spans="1:33" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="180"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
+    <row r="6" spans="1:33" ht="33" customHeight="1">
+      <c r="A6" s="181"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
       <c r="G6" s="45" t="s">
         <v>2</v>
       </c>
@@ -17375,13 +17333,13 @@
       <c r="AE6" s="21"/>
       <c r="AF6" s="21"/>
     </row>
-    <row r="7" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="181"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
+    <row r="7" spans="1:33" ht="32.25" customHeight="1">
+      <c r="A7" s="182"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
       <c r="G7" s="46" t="s">
         <v>3</v>
       </c>
@@ -17441,7 +17399,7 @@
       <c r="AE7" s="24"/>
       <c r="AF7" s="24"/>
     </row>
-    <row r="8" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="96" customHeight="1">
       <c r="A8" s="138">
         <v>1</v>
       </c>
@@ -17458,7 +17416,7 @@
         <v>370</v>
       </c>
       <c r="F8" s="108" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G8" s="154"/>
       <c r="H8" s="67">
@@ -17539,12 +17497,12 @@
         <v>812</v>
       </c>
       <c r="AE8" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF8" s="55"/>
       <c r="AG8" s="89"/>
     </row>
-    <row r="9" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="96" customHeight="1">
       <c r="A9" s="138">
         <v>2</v>
       </c>
@@ -17642,12 +17600,12 @@
         <v>793</v>
       </c>
       <c r="AE9" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF9" s="55"/>
       <c r="AG9" s="89"/>
     </row>
-    <row r="10" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="96" customHeight="1">
       <c r="A10" s="138">
         <v>3</v>
       </c>
@@ -17745,12 +17703,12 @@
         <v>791</v>
       </c>
       <c r="AE10" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF10" s="55"/>
       <c r="AG10" s="89"/>
     </row>
-    <row r="11" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="96" customHeight="1">
       <c r="A11" s="138">
         <v>4</v>
       </c>
@@ -17848,12 +17806,12 @@
         <v>827</v>
       </c>
       <c r="AE11" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF11" s="55"/>
       <c r="AG11" s="89"/>
     </row>
-    <row r="12" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="96" customHeight="1">
       <c r="A12" s="138">
         <v>5</v>
       </c>
@@ -17951,12 +17909,12 @@
         <v>796</v>
       </c>
       <c r="AE12" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF12" s="55"/>
       <c r="AG12" s="89"/>
     </row>
-    <row r="13" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="96" customHeight="1">
       <c r="A13" s="138">
         <v>6</v>
       </c>
@@ -18054,12 +18012,12 @@
         <v>744</v>
       </c>
       <c r="AE13" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF13" s="55"/>
       <c r="AG13" s="89"/>
     </row>
-    <row r="14" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="96" customHeight="1">
       <c r="A14" s="138">
         <v>7</v>
       </c>
@@ -18157,12 +18115,12 @@
         <v>860</v>
       </c>
       <c r="AE14" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF14" s="55"/>
       <c r="AG14" s="89"/>
     </row>
-    <row r="15" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="96" customHeight="1">
       <c r="A15" s="138">
         <v>8</v>
       </c>
@@ -18260,12 +18218,12 @@
         <v>824</v>
       </c>
       <c r="AE15" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF15" s="55"/>
       <c r="AG15" s="89"/>
     </row>
-    <row r="16" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="96" customHeight="1">
       <c r="A16" s="138">
         <v>9</v>
       </c>
@@ -18286,17 +18244,17 @@
       </c>
       <c r="G16" s="154"/>
       <c r="H16" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I16" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J16" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L16" s="67">
         <v>64</v>
@@ -18306,7 +18264,7 @@
         <v>64</v>
       </c>
       <c r="N16" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O16" s="68">
         <v>20</v>
@@ -18316,7 +18274,7 @@
         <v>20</v>
       </c>
       <c r="Q16" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="R16" s="67">
         <v>12</v>
@@ -18326,30 +18284,30 @@
         <v>12</v>
       </c>
       <c r="T16" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="U16" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="V16" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W16" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="X16" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Y16" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z16" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AA16" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AB16" s="65">
         <f t="shared" si="6"/>
@@ -18363,12 +18321,12 @@
         <v>96</v>
       </c>
       <c r="AE16" s="114" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AF16" s="55"/>
       <c r="AG16" s="89"/>
     </row>
-    <row r="17" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="96" customHeight="1">
       <c r="A17" s="138">
         <v>10</v>
       </c>
@@ -18466,12 +18424,12 @@
         <v>771</v>
       </c>
       <c r="AE17" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF17" s="55"/>
       <c r="AG17" s="89"/>
     </row>
-    <row r="18" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="96" customHeight="1">
       <c r="A18" s="138">
         <v>11</v>
       </c>
@@ -18512,7 +18470,7 @@
         <v>150</v>
       </c>
       <c r="N18" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O18" s="68">
         <v>50</v>
@@ -18569,14 +18527,14 @@
         <v>737</v>
       </c>
       <c r="AE18" s="57" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AF18" s="55" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AG18" s="89"/>
     </row>
-    <row r="19" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" ht="96" customHeight="1">
       <c r="A19" s="138">
         <v>12</v>
       </c>
@@ -18674,12 +18632,12 @@
         <v>851</v>
       </c>
       <c r="AE19" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF19" s="55"/>
       <c r="AG19" s="89"/>
     </row>
-    <row r="20" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" ht="96" customHeight="1">
       <c r="A20" s="138">
         <v>13</v>
       </c>
@@ -18777,12 +18735,12 @@
         <v>790</v>
       </c>
       <c r="AE20" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF20" s="55"/>
       <c r="AG20" s="89"/>
     </row>
-    <row r="21" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="96" customHeight="1">
       <c r="A21" s="138">
         <v>14</v>
       </c>
@@ -18880,12 +18838,12 @@
         <v>802</v>
       </c>
       <c r="AE21" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF21" s="55"/>
       <c r="AG21" s="89"/>
     </row>
-    <row r="22" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" ht="96" customHeight="1">
       <c r="A22" s="138">
         <v>15</v>
       </c>
@@ -18919,14 +18877,14 @@
         <v>62</v>
       </c>
       <c r="L22" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="M22" s="65">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="N22" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O22" s="68">
         <v>30</v>
@@ -18956,7 +18914,7 @@
         <v>38</v>
       </c>
       <c r="W22" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="X22" s="67">
         <v>17</v>
@@ -18983,14 +18941,14 @@
         <v>492</v>
       </c>
       <c r="AE22" s="57" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AF22" s="55" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AG22" s="89"/>
     </row>
-    <row r="23" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="96" customHeight="1">
       <c r="A23" s="138">
         <v>16</v>
       </c>
@@ -19031,7 +18989,7 @@
         <v>139</v>
       </c>
       <c r="N23" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O23" s="68">
         <v>47</v>
@@ -19088,14 +19046,14 @@
         <v>629</v>
       </c>
       <c r="AE23" s="57" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AF23" s="55" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AG23" s="89"/>
     </row>
-    <row r="24" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" ht="96" customHeight="1">
       <c r="A24" s="138">
         <v>17</v>
       </c>
@@ -19193,12 +19151,12 @@
         <v>763</v>
       </c>
       <c r="AE24" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF24" s="55"/>
       <c r="AG24" s="89"/>
     </row>
-    <row r="25" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="96" customHeight="1">
       <c r="A25" s="138">
         <v>18</v>
       </c>
@@ -19296,12 +19254,12 @@
         <v>801</v>
       </c>
       <c r="AE25" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF25" s="55"/>
       <c r="AG25" s="89"/>
     </row>
-    <row r="26" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="96" customHeight="1">
       <c r="A26" s="138">
         <v>19</v>
       </c>
@@ -19399,12 +19357,12 @@
         <v>835</v>
       </c>
       <c r="AE26" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF26" s="55"/>
       <c r="AG26" s="89"/>
     </row>
-    <row r="27" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="96" customHeight="1">
       <c r="A27" s="138">
         <v>20</v>
       </c>
@@ -19502,12 +19460,12 @@
         <v>765</v>
       </c>
       <c r="AE27" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF27" s="55"/>
       <c r="AG27" s="89"/>
     </row>
-    <row r="28" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" ht="96" customHeight="1">
       <c r="A28" s="138">
         <v>21</v>
       </c>
@@ -19605,12 +19563,12 @@
         <v>835</v>
       </c>
       <c r="AE28" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF28" s="55"/>
       <c r="AG28" s="89"/>
     </row>
-    <row r="29" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="96" customHeight="1">
       <c r="A29" s="138">
         <v>22</v>
       </c>
@@ -19708,12 +19666,12 @@
         <v>803</v>
       </c>
       <c r="AE29" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF29" s="55"/>
       <c r="AG29" s="89"/>
     </row>
-    <row r="30" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="96" customHeight="1">
       <c r="A30" s="138">
         <v>23</v>
       </c>
@@ -19811,12 +19769,12 @@
         <v>830</v>
       </c>
       <c r="AE30" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF30" s="55"/>
       <c r="AG30" s="89"/>
     </row>
-    <row r="31" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" ht="96" customHeight="1">
       <c r="A31" s="138">
         <v>24</v>
       </c>
@@ -19837,20 +19795,20 @@
       </c>
       <c r="G31" s="154"/>
       <c r="H31" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I31" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J31" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K31" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L31" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="M31" s="65">
         <f t="shared" si="1"/>
@@ -19867,7 +19825,7 @@
         <v>111</v>
       </c>
       <c r="Q31" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="R31" s="67">
         <v>1</v>
@@ -19877,30 +19835,30 @@
         <v>1</v>
       </c>
       <c r="T31" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="U31" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="V31" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W31" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="X31" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Y31" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z31" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AA31" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AB31" s="65">
         <f t="shared" si="6"/>
@@ -19914,12 +19872,12 @@
         <v>112</v>
       </c>
       <c r="AE31" s="114" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AF31" s="55"/>
       <c r="AG31" s="89"/>
     </row>
-    <row r="32" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="96" customHeight="1">
       <c r="A32" s="138">
         <v>25</v>
       </c>
@@ -20017,12 +19975,12 @@
         <v>759</v>
       </c>
       <c r="AE32" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF32" s="55"/>
       <c r="AG32" s="89"/>
     </row>
-    <row r="33" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" ht="96" customHeight="1">
       <c r="A33" s="138">
         <v>26</v>
       </c>
@@ -20120,12 +20078,12 @@
         <v>750</v>
       </c>
       <c r="AE33" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF33" s="55"/>
       <c r="AG33" s="89"/>
     </row>
-    <row r="34" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" ht="96" customHeight="1">
       <c r="A34" s="138">
         <v>27</v>
       </c>
@@ -20223,12 +20181,12 @@
         <v>872</v>
       </c>
       <c r="AE34" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF34" s="55"/>
       <c r="AG34" s="89"/>
     </row>
-    <row r="35" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" ht="96" customHeight="1">
       <c r="A35" s="138">
         <v>28</v>
       </c>
@@ -20326,12 +20284,12 @@
         <v>821</v>
       </c>
       <c r="AE35" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF35" s="55"/>
       <c r="AG35" s="89"/>
     </row>
-    <row r="36" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" ht="96" customHeight="1">
       <c r="A36" s="138">
         <v>29</v>
       </c>
@@ -20429,12 +20387,12 @@
         <v>845</v>
       </c>
       <c r="AE36" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF36" s="55"/>
       <c r="AG36" s="89"/>
     </row>
-    <row r="37" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" ht="96" customHeight="1">
       <c r="A37" s="138">
         <v>30</v>
       </c>
@@ -20532,12 +20490,12 @@
         <v>718</v>
       </c>
       <c r="AE37" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF37" s="55"/>
       <c r="AG37" s="89"/>
     </row>
-    <row r="38" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" ht="96" customHeight="1">
       <c r="A38" s="138">
         <v>31</v>
       </c>
@@ -20578,7 +20536,7 @@
         <v>154</v>
       </c>
       <c r="N38" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O38" s="68">
         <v>50</v>
@@ -20608,7 +20566,7 @@
         <v>42</v>
       </c>
       <c r="W38" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="X38" s="67">
         <v>19</v>
@@ -20635,14 +20593,14 @@
         <v>656</v>
       </c>
       <c r="AE38" s="57" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AF38" s="55" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AG38" s="89"/>
     </row>
-    <row r="39" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" ht="96" customHeight="1">
       <c r="A39" s="138">
         <v>32</v>
       </c>
@@ -20740,12 +20698,12 @@
         <v>857</v>
       </c>
       <c r="AE39" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF39" s="55"/>
       <c r="AG39" s="89"/>
     </row>
-    <row r="40" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" ht="96" customHeight="1">
       <c r="A40" s="138">
         <v>33</v>
       </c>
@@ -20843,14 +20801,14 @@
         <v>568</v>
       </c>
       <c r="AE40" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF40" s="55" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AG40" s="89"/>
     </row>
-    <row r="41" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" ht="96" customHeight="1">
       <c r="A41" s="138">
         <v>34</v>
       </c>
@@ -20948,12 +20906,12 @@
         <v>838</v>
       </c>
       <c r="AE41" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF41" s="55"/>
       <c r="AG41" s="89"/>
     </row>
-    <row r="42" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" ht="96" customHeight="1">
       <c r="A42" s="138">
         <v>35</v>
       </c>
@@ -21051,12 +21009,12 @@
         <v>824</v>
       </c>
       <c r="AE42" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF42" s="55"/>
       <c r="AG42" s="89"/>
     </row>
-    <row r="43" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" ht="96" customHeight="1">
       <c r="A43" s="138">
         <v>36</v>
       </c>
@@ -21154,12 +21112,12 @@
         <v>808</v>
       </c>
       <c r="AE43" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF43" s="55"/>
       <c r="AG43" s="89"/>
     </row>
-    <row r="44" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" ht="96" customHeight="1">
       <c r="A44" s="138">
         <v>37</v>
       </c>
@@ -21257,12 +21215,12 @@
         <v>858</v>
       </c>
       <c r="AE44" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF44" s="55"/>
       <c r="AG44" s="89"/>
     </row>
-    <row r="45" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" ht="96" customHeight="1">
       <c r="A45" s="138">
         <v>38</v>
       </c>
@@ -21283,27 +21241,27 @@
       </c>
       <c r="G45" s="154"/>
       <c r="H45" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I45" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J45" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K45" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L45" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="M45" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N45" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O45" s="68">
         <v>24</v>
@@ -21313,7 +21271,7 @@
         <v>24</v>
       </c>
       <c r="Q45" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="R45" s="67">
         <v>1</v>
@@ -21323,30 +21281,30 @@
         <v>1</v>
       </c>
       <c r="T45" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="U45" s="68" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="V45" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W45" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="X45" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Y45" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z45" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AA45" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AB45" s="65">
         <f t="shared" si="6"/>
@@ -21360,12 +21318,12 @@
         <v>25</v>
       </c>
       <c r="AE45" s="114" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AF45" s="55"/>
       <c r="AG45" s="89"/>
     </row>
-    <row r="46" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" ht="96" customHeight="1">
       <c r="A46" s="138">
         <v>39</v>
       </c>
@@ -21463,12 +21421,12 @@
         <v>783</v>
       </c>
       <c r="AE46" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF46" s="55"/>
       <c r="AG46" s="89"/>
     </row>
-    <row r="47" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" ht="96" customHeight="1">
       <c r="A47" s="138">
         <v>40</v>
       </c>
@@ -21566,12 +21524,12 @@
         <v>654</v>
       </c>
       <c r="AE47" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF47" s="55"/>
       <c r="AG47" s="89"/>
     </row>
-    <row r="48" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" ht="96" customHeight="1">
       <c r="A48" s="138">
         <v>41</v>
       </c>
@@ -21669,12 +21627,12 @@
         <v>841</v>
       </c>
       <c r="AE48" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF48" s="55"/>
       <c r="AG48" s="89"/>
     </row>
-    <row r="49" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" ht="96" customHeight="1">
       <c r="A49" s="138">
         <v>42</v>
       </c>
@@ -21772,12 +21730,12 @@
         <v>867</v>
       </c>
       <c r="AE49" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF49" s="55"/>
       <c r="AG49" s="89"/>
     </row>
-    <row r="50" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" ht="96" customHeight="1">
       <c r="A50" s="138">
         <v>43</v>
       </c>
@@ -21875,12 +21833,12 @@
         <v>700</v>
       </c>
       <c r="AE50" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF50" s="55"/>
       <c r="AG50" s="89"/>
     </row>
-    <row r="51" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" ht="96" customHeight="1">
       <c r="A51" s="138">
         <v>44</v>
       </c>
@@ -21978,12 +21936,12 @@
         <v>810</v>
       </c>
       <c r="AE51" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF51" s="55"/>
       <c r="AG51" s="89"/>
     </row>
-    <row r="52" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" ht="96" customHeight="1">
       <c r="A52" s="138">
         <v>45</v>
       </c>
@@ -22081,12 +22039,12 @@
         <v>764</v>
       </c>
       <c r="AE52" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF52" s="55"/>
       <c r="AG52" s="89"/>
     </row>
-    <row r="53" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" ht="96" customHeight="1">
       <c r="A53" s="138">
         <v>46</v>
       </c>
@@ -22184,12 +22142,12 @@
         <v>834</v>
       </c>
       <c r="AE53" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF53" s="55"/>
       <c r="AG53" s="89"/>
     </row>
-    <row r="54" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" ht="96" customHeight="1">
       <c r="A54" s="138">
         <v>47</v>
       </c>
@@ -22287,12 +22245,12 @@
         <v>838</v>
       </c>
       <c r="AE54" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF54" s="55"/>
       <c r="AG54" s="89"/>
     </row>
-    <row r="55" spans="1:33" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" ht="96" customHeight="1">
       <c r="A55" s="138">
         <v>48</v>
       </c>
@@ -22390,12 +22348,12 @@
         <v>843</v>
       </c>
       <c r="AE55" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF55" s="55"/>
       <c r="AG55" s="89"/>
     </row>
-    <row r="56" spans="1:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" ht="22.5" customHeight="1">
       <c r="A56" s="89"/>
       <c r="B56" s="89"/>
       <c r="C56" s="89"/>
@@ -22430,7 +22388,7 @@
       <c r="AF56" s="89"/>
       <c r="AG56" s="89"/>
     </row>
-    <row r="59" spans="1:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" ht="22.5" customHeight="1">
       <c r="E59" s="17"/>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
@@ -22558,30 +22516,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ70"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G4" sqref="A4:IV4"/>
+    <sheetView topLeftCell="C34" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="31" customWidth="1"/>
-    <col min="4" max="5" width="24.42578125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="31" customWidth="1"/>
+    <col min="4" max="5" width="24.44140625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" style="31" customWidth="1"/>
     <col min="7" max="7" width="12" style="31" customWidth="1"/>
-    <col min="8" max="28" width="8.85546875" style="31" customWidth="1"/>
-    <col min="29" max="29" width="15.5703125" style="31" customWidth="1"/>
+    <col min="8" max="28" width="8.88671875" style="31" customWidth="1"/>
+    <col min="29" max="29" width="15.5546875" style="31" customWidth="1"/>
     <col min="30" max="30" width="12" style="31" customWidth="1"/>
-    <col min="31" max="31" width="21.28515625" style="31" customWidth="1"/>
-    <col min="32" max="32" width="60.7109375" style="31" customWidth="1"/>
-    <col min="33" max="16384" width="6.28515625" style="31"/>
+    <col min="31" max="31" width="21.33203125" style="31" customWidth="1"/>
+    <col min="32" max="32" width="60.6640625" style="31" customWidth="1"/>
+    <col min="33" max="16384" width="6.33203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="42" customHeight="1">
       <c r="A1" s="193" t="s">
         <v>55</v>
       </c>
@@ -22618,7 +22576,7 @@
       <c r="AF1" s="193"/>
       <c r="AG1" s="193"/>
     </row>
-    <row r="2" spans="1:36" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="42" customHeight="1">
       <c r="A2" s="194" t="s">
         <v>54</v>
       </c>
@@ -22654,7 +22612,7 @@
       <c r="AE2" s="194"/>
       <c r="AF2" s="194"/>
     </row>
-    <row r="3" spans="1:36" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="42" customHeight="1">
       <c r="A3" s="84"/>
       <c r="B3" s="84"/>
       <c r="C3" s="84"/>
@@ -22679,7 +22637,7 @@
       <c r="T3" s="85"/>
       <c r="U3" s="85"/>
       <c r="V3" s="85" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="W3" s="85"/>
       <c r="X3" s="85"/>
@@ -22696,63 +22654,63 @@
       <c r="AI3" s="85"/>
       <c r="AJ3" s="85"/>
     </row>
-    <row r="4" spans="1:36" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="180" t="s">
+    <row r="4" spans="1:36" ht="147.75" customHeight="1">
+      <c r="A4" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="180" t="s">
+      <c r="D4" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="187" t="s">
+      <c r="E4" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="187" t="s">
+      <c r="F4" s="183" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="179" t="s">
+      <c r="H4" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179" t="s">
-        <v>839</v>
-      </c>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179" t="s">
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185" t="s">
+        <v>838</v>
+      </c>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="179"/>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="179" t="s">
+      <c r="O4" s="185"/>
+      <c r="P4" s="185"/>
+      <c r="Q4" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="179"/>
-      <c r="S4" s="179"/>
-      <c r="T4" s="179" t="s">
+      <c r="R4" s="185"/>
+      <c r="S4" s="185"/>
+      <c r="T4" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="179"/>
-      <c r="V4" s="179"/>
-      <c r="W4" s="179" t="s">
+      <c r="U4" s="185"/>
+      <c r="V4" s="185"/>
+      <c r="W4" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="179"/>
-      <c r="Y4" s="179"/>
-      <c r="Z4" s="179" t="s">
+      <c r="X4" s="185"/>
+      <c r="Y4" s="185"/>
+      <c r="Z4" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="AA4" s="179"/>
-      <c r="AB4" s="179"/>
+      <c r="AA4" s="185"/>
+      <c r="AB4" s="185"/>
       <c r="AC4" s="59" t="s">
         <v>29</v>
       </c>
@@ -22766,13 +22724,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="180"/>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
+    <row r="5" spans="1:36" ht="48.75" customHeight="1">
+      <c r="A5" s="181"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
       <c r="G5" s="19"/>
       <c r="H5" s="7" t="s">
         <v>6</v>
@@ -22842,13 +22800,13 @@
       <c r="AE5" s="19"/>
       <c r="AF5" s="19"/>
     </row>
-    <row r="6" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="180"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
+    <row r="6" spans="1:36" ht="35.25" customHeight="1">
+      <c r="A6" s="181"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
       <c r="G6" s="19" t="s">
         <v>2</v>
       </c>
@@ -22932,13 +22890,13 @@
       <c r="AE6" s="21"/>
       <c r="AF6" s="21"/>
     </row>
-    <row r="7" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="181"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
+    <row r="7" spans="1:36" ht="35.25" customHeight="1">
+      <c r="A7" s="182"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
       <c r="G7" s="30" t="s">
         <v>3</v>
       </c>
@@ -22998,7 +22956,7 @@
       <c r="AE7" s="49"/>
       <c r="AF7" s="25"/>
     </row>
-    <row r="8" spans="1:36" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="81" customHeight="1">
       <c r="A8" s="52">
         <v>1</v>
       </c>
@@ -23096,14 +23054,14 @@
         <v>494</v>
       </c>
       <c r="AE8" s="177" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AF8" s="60" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AG8" s="93"/>
     </row>
-    <row r="9" spans="1:36" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="81" customHeight="1">
       <c r="A9" s="52">
         <v>2</v>
       </c>
@@ -23201,12 +23159,12 @@
         <v>637</v>
       </c>
       <c r="AE9" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF9" s="56"/>
       <c r="AG9" s="93"/>
     </row>
-    <row r="10" spans="1:36" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="81" customHeight="1">
       <c r="A10" s="52">
         <v>3</v>
       </c>
@@ -23302,12 +23260,12 @@
         <v>571</v>
       </c>
       <c r="AE10" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF10" s="60"/>
       <c r="AG10" s="93"/>
     </row>
-    <row r="11" spans="1:36" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="81" customHeight="1">
       <c r="A11" s="52">
         <v>4</v>
       </c>
@@ -23405,12 +23363,12 @@
         <v>651</v>
       </c>
       <c r="AE11" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF11" s="56"/>
       <c r="AG11" s="93"/>
     </row>
-    <row r="12" spans="1:36" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="81" customHeight="1">
       <c r="A12" s="52">
         <v>5</v>
       </c>
@@ -23508,12 +23466,12 @@
         <v>697</v>
       </c>
       <c r="AE12" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF12" s="56"/>
       <c r="AG12" s="93"/>
     </row>
-    <row r="13" spans="1:36" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="81" customHeight="1">
       <c r="A13" s="52">
         <v>6</v>
       </c>
@@ -23611,12 +23569,12 @@
         <v>635</v>
       </c>
       <c r="AE13" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF13" s="56"/>
       <c r="AG13" s="93"/>
     </row>
-    <row r="14" spans="1:36" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="81" customHeight="1">
       <c r="A14" s="52">
         <v>7</v>
       </c>
@@ -23714,12 +23672,12 @@
         <v>627</v>
       </c>
       <c r="AE14" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF14" s="56"/>
       <c r="AG14" s="93"/>
     </row>
-    <row r="15" spans="1:36" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="81" customHeight="1">
       <c r="A15" s="52">
         <v>8</v>
       </c>
@@ -23815,12 +23773,12 @@
         <v>593</v>
       </c>
       <c r="AE15" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF15" s="56"/>
       <c r="AG15" s="93"/>
     </row>
-    <row r="16" spans="1:36" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="81" customHeight="1">
       <c r="A16" s="52">
         <v>9</v>
       </c>
@@ -23916,12 +23874,12 @@
         <v>551</v>
       </c>
       <c r="AE16" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF16" s="56"/>
       <c r="AG16" s="93"/>
     </row>
-    <row r="17" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="81" customHeight="1">
       <c r="A17" s="52">
         <v>10</v>
       </c>
@@ -24019,12 +23977,12 @@
         <v>698</v>
       </c>
       <c r="AE17" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF17" s="56"/>
       <c r="AG17" s="93"/>
     </row>
-    <row r="18" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="81" customHeight="1">
       <c r="A18" s="52">
         <v>11</v>
       </c>
@@ -24122,12 +24080,12 @@
         <v>678</v>
       </c>
       <c r="AE18" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF18" s="56"/>
       <c r="AG18" s="93"/>
     </row>
-    <row r="19" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="81" customHeight="1">
       <c r="A19" s="52">
         <v>12</v>
       </c>
@@ -24223,12 +24181,12 @@
         <v>502</v>
       </c>
       <c r="AE19" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF19" s="56"/>
       <c r="AG19" s="93"/>
     </row>
-    <row r="20" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="81" customHeight="1">
       <c r="A20" s="52">
         <v>13</v>
       </c>
@@ -24324,12 +24282,12 @@
         <v>577</v>
       </c>
       <c r="AE20" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF20" s="56"/>
       <c r="AG20" s="93"/>
     </row>
-    <row r="21" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="81" customHeight="1">
       <c r="A21" s="52">
         <v>14</v>
       </c>
@@ -24425,12 +24383,12 @@
         <v>588</v>
       </c>
       <c r="AE21" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF21" s="56"/>
       <c r="AG21" s="93"/>
     </row>
-    <row r="22" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="81" customHeight="1">
       <c r="A22" s="52">
         <v>15</v>
       </c>
@@ -24528,12 +24486,12 @@
         <v>587</v>
       </c>
       <c r="AE22" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF22" s="56"/>
       <c r="AG22" s="93"/>
     </row>
-    <row r="23" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="81" customHeight="1">
       <c r="A23" s="52">
         <v>16</v>
       </c>
@@ -24631,12 +24589,12 @@
         <v>708</v>
       </c>
       <c r="AE23" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF23" s="56"/>
       <c r="AG23" s="93"/>
     </row>
-    <row r="24" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="81" customHeight="1">
       <c r="A24" s="52">
         <v>17</v>
       </c>
@@ -24732,12 +24690,12 @@
         <v>598</v>
       </c>
       <c r="AE24" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF24" s="56"/>
       <c r="AG24" s="93"/>
     </row>
-    <row r="25" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="81" customHeight="1">
       <c r="A25" s="52">
         <v>18</v>
       </c>
@@ -24835,12 +24793,12 @@
         <v>603</v>
       </c>
       <c r="AE25" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF25" s="56"/>
       <c r="AG25" s="93"/>
     </row>
-    <row r="26" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="81" customHeight="1">
       <c r="A26" s="52">
         <v>19</v>
       </c>
@@ -24936,12 +24894,12 @@
         <v>572</v>
       </c>
       <c r="AE26" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF26" s="60"/>
       <c r="AG26" s="93"/>
     </row>
-    <row r="27" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="81" customHeight="1">
       <c r="A27" s="52">
         <v>20</v>
       </c>
@@ -25039,12 +24997,12 @@
         <v>617</v>
       </c>
       <c r="AE27" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF27" s="56"/>
       <c r="AG27" s="93"/>
     </row>
-    <row r="28" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="81" customHeight="1">
       <c r="A28" s="52">
         <v>21</v>
       </c>
@@ -25140,12 +25098,12 @@
         <v>618</v>
       </c>
       <c r="AE28" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF28" s="56"/>
       <c r="AG28" s="93"/>
     </row>
-    <row r="29" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="81" customHeight="1">
       <c r="A29" s="52">
         <v>22</v>
       </c>
@@ -25243,12 +25201,12 @@
         <v>614</v>
       </c>
       <c r="AE29" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF29" s="56"/>
       <c r="AG29" s="93"/>
     </row>
-    <row r="30" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="81" customHeight="1">
       <c r="A30" s="52">
         <v>23</v>
       </c>
@@ -25346,12 +25304,12 @@
         <v>648</v>
       </c>
       <c r="AE30" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF30" s="56"/>
       <c r="AG30" s="93"/>
     </row>
-    <row r="31" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="81" customHeight="1">
       <c r="A31" s="52">
         <v>24</v>
       </c>
@@ -25447,12 +25405,12 @@
         <v>532</v>
       </c>
       <c r="AE31" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF31" s="56"/>
       <c r="AG31" s="93"/>
     </row>
-    <row r="32" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="81" customHeight="1">
       <c r="A32" s="52">
         <v>25</v>
       </c>
@@ -25548,12 +25506,12 @@
         <v>556</v>
       </c>
       <c r="AE32" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF32" s="60"/>
       <c r="AG32" s="93"/>
     </row>
-    <row r="33" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" ht="81" customHeight="1">
       <c r="A33" s="52">
         <v>26</v>
       </c>
@@ -25651,12 +25609,12 @@
         <v>580</v>
       </c>
       <c r="AE33" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF33" s="56"/>
       <c r="AG33" s="93"/>
     </row>
-    <row r="34" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" ht="81" customHeight="1">
       <c r="A34" s="52">
         <v>27</v>
       </c>
@@ -25725,7 +25683,7 @@
         <v>38</v>
       </c>
       <c r="W34" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="X34" s="51">
         <v>23</v>
@@ -25752,12 +25710,12 @@
         <v>581</v>
       </c>
       <c r="AE34" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF34" s="56"/>
       <c r="AG34" s="93"/>
     </row>
-    <row r="35" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" ht="81" customHeight="1">
       <c r="A35" s="52">
         <v>28</v>
       </c>
@@ -25855,12 +25813,12 @@
         <v>690</v>
       </c>
       <c r="AE35" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF35" s="60"/>
       <c r="AG35" s="93"/>
     </row>
-    <row r="36" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" ht="81" customHeight="1">
       <c r="A36" s="52">
         <v>29</v>
       </c>
@@ -25958,14 +25916,14 @@
         <v>550</v>
       </c>
       <c r="AE36" s="177" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AF36" s="60" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AG36" s="93"/>
     </row>
-    <row r="37" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" ht="81" customHeight="1">
       <c r="A37" s="52">
         <v>30</v>
       </c>
@@ -25995,13 +25953,15 @@
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="K37" s="51"/>
+      <c r="K37" s="51">
+        <v>80</v>
+      </c>
       <c r="L37" s="51">
         <v>76</v>
       </c>
       <c r="M37" s="53">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="N37" s="51">
         <v>96</v>
@@ -26058,15 +26018,15 @@
       </c>
       <c r="AD37" s="53">
         <f t="shared" si="7"/>
-        <v>558</v>
+        <v>638</v>
       </c>
       <c r="AE37" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF37" s="56"/>
       <c r="AG37" s="93"/>
     </row>
-    <row r="38" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" ht="81" customHeight="1">
       <c r="A38" s="52">
         <v>31</v>
       </c>
@@ -26164,12 +26124,12 @@
         <v>587</v>
       </c>
       <c r="AE38" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF38" s="56"/>
       <c r="AG38" s="93"/>
     </row>
-    <row r="39" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" ht="81" customHeight="1">
       <c r="A39" s="52">
         <v>32</v>
       </c>
@@ -26267,12 +26227,12 @@
         <v>658</v>
       </c>
       <c r="AE39" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF39" s="56"/>
       <c r="AG39" s="93"/>
     </row>
-    <row r="40" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" ht="81" customHeight="1">
       <c r="A40" s="52">
         <v>33</v>
       </c>
@@ -26368,12 +26328,12 @@
         <v>584</v>
       </c>
       <c r="AE40" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF40" s="60"/>
       <c r="AG40" s="93"/>
     </row>
-    <row r="41" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" ht="81" customHeight="1">
       <c r="A41" s="52">
         <v>34</v>
       </c>
@@ -26471,12 +26431,12 @@
         <v>589</v>
       </c>
       <c r="AE41" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF41" s="56"/>
       <c r="AG41" s="93"/>
     </row>
-    <row r="42" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" ht="81" customHeight="1">
       <c r="A42" s="52">
         <v>35</v>
       </c>
@@ -26572,12 +26532,12 @@
         <v>511</v>
       </c>
       <c r="AE42" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF42" s="56"/>
       <c r="AG42" s="93"/>
     </row>
-    <row r="43" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" ht="81" customHeight="1">
       <c r="A43" s="52">
         <v>36</v>
       </c>
@@ -26675,12 +26635,12 @@
         <v>624</v>
       </c>
       <c r="AE43" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF43" s="56"/>
       <c r="AG43" s="93"/>
     </row>
-    <row r="44" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" ht="81" customHeight="1">
       <c r="A44" s="52">
         <v>37</v>
       </c>
@@ -26778,12 +26738,12 @@
         <v>685</v>
       </c>
       <c r="AE44" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF44" s="56"/>
       <c r="AG44" s="93"/>
     </row>
-    <row r="45" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" ht="81" customHeight="1">
       <c r="A45" s="52">
         <v>38</v>
       </c>
@@ -26879,12 +26839,12 @@
         <v>559</v>
       </c>
       <c r="AE45" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF45" s="60"/>
       <c r="AG45" s="93"/>
     </row>
-    <row r="46" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" ht="81" customHeight="1">
       <c r="A46" s="52">
         <v>39</v>
       </c>
@@ -26982,12 +26942,12 @@
         <v>663</v>
       </c>
       <c r="AE46" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF46" s="56"/>
       <c r="AG46" s="93"/>
     </row>
-    <row r="47" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" ht="81" customHeight="1">
       <c r="A47" s="52">
         <v>40</v>
       </c>
@@ -27085,12 +27045,12 @@
         <v>641</v>
       </c>
       <c r="AE47" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF47" s="56"/>
       <c r="AG47" s="93"/>
     </row>
-    <row r="48" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" ht="81" customHeight="1">
       <c r="A48" s="52">
         <v>41</v>
       </c>
@@ -27188,12 +27148,12 @@
         <v>659</v>
       </c>
       <c r="AE48" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF48" s="56"/>
       <c r="AG48" s="93"/>
     </row>
-    <row r="49" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" ht="81" customHeight="1">
       <c r="A49" s="52">
         <v>42</v>
       </c>
@@ -27289,12 +27249,12 @@
         <v>534</v>
       </c>
       <c r="AE49" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF49" s="56"/>
       <c r="AG49" s="93"/>
     </row>
-    <row r="50" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" ht="81" customHeight="1">
       <c r="A50" s="52">
         <v>43</v>
       </c>
@@ -27392,12 +27352,12 @@
         <v>557</v>
       </c>
       <c r="AE50" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF50" s="56"/>
       <c r="AG50" s="93"/>
     </row>
-    <row r="51" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" ht="81" customHeight="1">
       <c r="A51" s="52">
         <v>44</v>
       </c>
@@ -27418,37 +27378,37 @@
       </c>
       <c r="G51" s="63"/>
       <c r="H51" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I51" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J51" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K51" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L51" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="M51" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N51" s="51" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="O51" s="51" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P51" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q51" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="R51" s="51">
         <v>5</v>
@@ -27468,20 +27428,20 @@
         <v>34</v>
       </c>
       <c r="W51" s="51" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="X51" s="51" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="Y51" s="53">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z51" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AA51" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AB51" s="53">
         <f t="shared" si="6"/>
@@ -27495,12 +27455,12 @@
         <v>34</v>
       </c>
       <c r="AE51" s="178" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AF51" s="56"/>
       <c r="AG51" s="93"/>
     </row>
-    <row r="52" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" ht="81" customHeight="1">
       <c r="A52" s="52">
         <v>45</v>
       </c>
@@ -27596,12 +27556,12 @@
         <v>547</v>
       </c>
       <c r="AE52" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF52" s="56"/>
       <c r="AG52" s="93"/>
     </row>
-    <row r="53" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" ht="81" customHeight="1">
       <c r="A53" s="52">
         <v>46</v>
       </c>
@@ -27699,12 +27659,12 @@
         <v>674</v>
       </c>
       <c r="AE53" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF53" s="56"/>
       <c r="AG53" s="93"/>
     </row>
-    <row r="54" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" ht="81" customHeight="1">
       <c r="A54" s="52">
         <v>47</v>
       </c>
@@ -27802,12 +27762,12 @@
         <v>723</v>
       </c>
       <c r="AE54" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF54" s="56"/>
       <c r="AG54" s="93"/>
     </row>
-    <row r="55" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" ht="81" customHeight="1">
       <c r="A55" s="52">
         <v>48</v>
       </c>
@@ -27905,12 +27865,12 @@
         <v>695</v>
       </c>
       <c r="AE55" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF55" s="60"/>
       <c r="AG55" s="93"/>
     </row>
-    <row r="56" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" ht="81" customHeight="1">
       <c r="A56" s="52">
         <v>49</v>
       </c>
@@ -28008,12 +27968,12 @@
         <v>620</v>
       </c>
       <c r="AE56" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF56" s="56"/>
       <c r="AG56" s="93"/>
     </row>
-    <row r="57" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" ht="81" customHeight="1">
       <c r="A57" s="52">
         <v>50</v>
       </c>
@@ -28111,12 +28071,12 @@
         <v>678</v>
       </c>
       <c r="AE57" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF57" s="56"/>
       <c r="AG57" s="93"/>
     </row>
-    <row r="58" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" ht="81" customHeight="1">
       <c r="A58" s="52">
         <v>51</v>
       </c>
@@ -28214,12 +28174,12 @@
         <v>610</v>
       </c>
       <c r="AE58" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF58" s="60"/>
       <c r="AG58" s="93"/>
     </row>
-    <row r="59" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" ht="81" customHeight="1">
       <c r="A59" s="52">
         <v>52</v>
       </c>
@@ -28315,12 +28275,12 @@
         <v>542</v>
       </c>
       <c r="AE59" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF59" s="56"/>
       <c r="AG59" s="93"/>
     </row>
-    <row r="60" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" ht="81" customHeight="1">
       <c r="A60" s="52">
         <v>53</v>
       </c>
@@ -28418,12 +28378,12 @@
         <v>634</v>
       </c>
       <c r="AE60" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF60" s="60"/>
       <c r="AG60" s="93"/>
     </row>
-    <row r="61" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" ht="81" customHeight="1">
       <c r="A61" s="52">
         <v>54</v>
       </c>
@@ -28444,37 +28404,37 @@
       </c>
       <c r="G61" s="63"/>
       <c r="H61" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I61" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J61" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K61" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L61" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="M61" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N61" s="51" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="O61" s="51" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P61" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q61" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="R61" s="51">
         <v>3</v>
@@ -28494,20 +28454,20 @@
         <v>33</v>
       </c>
       <c r="W61" s="51" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="X61" s="51" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="Y61" s="53">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z61" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AA61" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AB61" s="53">
         <f t="shared" si="6"/>
@@ -28521,12 +28481,12 @@
         <v>33</v>
       </c>
       <c r="AE61" s="178" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AF61" s="56"/>
       <c r="AG61" s="93"/>
     </row>
-    <row r="62" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" ht="81" customHeight="1">
       <c r="A62" s="52">
         <v>55</v>
       </c>
@@ -28624,12 +28584,12 @@
         <v>652</v>
       </c>
       <c r="AE62" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF62" s="56"/>
       <c r="AG62" s="93"/>
     </row>
-    <row r="63" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" ht="81" customHeight="1">
       <c r="A63" s="52">
         <v>56</v>
       </c>
@@ -28727,12 +28687,12 @@
         <v>677</v>
       </c>
       <c r="AE63" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF63" s="104"/>
       <c r="AG63" s="93"/>
     </row>
-    <row r="64" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" ht="81" customHeight="1">
       <c r="A64" s="52">
         <v>57</v>
       </c>
@@ -28830,11 +28790,11 @@
         <v>702</v>
       </c>
       <c r="AE64" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF64" s="105"/>
     </row>
-    <row r="65" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" ht="81" customHeight="1">
       <c r="A65" s="52">
         <v>58</v>
       </c>
@@ -28930,11 +28890,11 @@
         <v>595</v>
       </c>
       <c r="AE65" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF65" s="105"/>
     </row>
-    <row r="66" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" ht="81" customHeight="1">
       <c r="A66" s="52">
         <v>59</v>
       </c>
@@ -29032,11 +28992,11 @@
         <v>637</v>
       </c>
       <c r="AE66" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF66" s="105"/>
     </row>
-    <row r="67" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" ht="81" customHeight="1">
       <c r="A67" s="52">
         <v>60</v>
       </c>
@@ -29134,11 +29094,11 @@
         <v>614</v>
       </c>
       <c r="AE67" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF67" s="105"/>
     </row>
-    <row r="68" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" ht="81" customHeight="1">
       <c r="A68" s="52">
         <v>61</v>
       </c>
@@ -29236,11 +29196,11 @@
         <v>555</v>
       </c>
       <c r="AE68" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF68" s="105"/>
     </row>
-    <row r="69" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" ht="81" customHeight="1">
       <c r="A69" s="52">
         <v>62</v>
       </c>
@@ -29261,7 +29221,7 @@
       </c>
       <c r="G69" s="105"/>
       <c r="H69" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I69" s="51">
         <v>16</v>
@@ -29279,7 +29239,7 @@
         <v>52</v>
       </c>
       <c r="N69" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O69" s="51">
         <v>70</v>
@@ -29289,7 +29249,7 @@
         <v>70</v>
       </c>
       <c r="Q69" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="R69" s="51">
         <v>19</v>
@@ -29309,7 +29269,7 @@
         <v>34</v>
       </c>
       <c r="W69" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="X69" s="51">
         <v>22</v>
@@ -29319,10 +29279,10 @@
         <v>22</v>
       </c>
       <c r="Z69" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AA69" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AB69" s="53">
         <f t="shared" si="6"/>
@@ -29336,11 +29296,11 @@
         <v>194</v>
       </c>
       <c r="AE69" s="178" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AF69" s="105"/>
     </row>
-    <row r="70" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" ht="81" customHeight="1">
       <c r="A70" s="52">
         <v>63</v>
       </c>
@@ -29438,7 +29398,7 @@
         <v>631</v>
       </c>
       <c r="AE70" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF70" s="105"/>
     </row>
@@ -29519,102 +29479,102 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI49"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="G4" sqref="A4:IV4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="32" max="33" width="13.140625" customWidth="1"/>
-    <col min="34" max="34" width="24.28515625" customWidth="1"/>
-    <col min="35" max="35" width="46.28515625" customWidth="1"/>
+    <col min="2" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" customWidth="1"/>
+    <col min="6" max="6" width="39.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="32" max="33" width="13.109375" customWidth="1"/>
+    <col min="34" max="34" width="24.33203125" customWidth="1"/>
+    <col min="35" max="35" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="186" t="s">
+    <row r="1" spans="1:35" ht="63" customHeight="1">
+      <c r="A1" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="186"/>
-      <c r="S1" s="186"/>
-      <c r="T1" s="186"/>
-      <c r="U1" s="186"/>
-      <c r="V1" s="186"/>
-      <c r="W1" s="186"/>
-      <c r="X1" s="186"/>
-      <c r="Y1" s="186"/>
-      <c r="Z1" s="186"/>
-      <c r="AA1" s="186"/>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="186"/>
-      <c r="AD1" s="186"/>
-      <c r="AE1" s="186"/>
-      <c r="AF1" s="186"/>
-      <c r="AG1" s="186"/>
-      <c r="AH1" s="186"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="180"/>
+      <c r="S1" s="180"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="180"/>
+      <c r="AA1" s="180"/>
+      <c r="AB1" s="180"/>
+      <c r="AC1" s="180"/>
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="180"/>
+      <c r="AH1" s="180"/>
     </row>
-    <row r="2" spans="1:35" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="186" t="s">
+    <row r="2" spans="1:35" ht="63" customHeight="1">
+      <c r="A2" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="186"/>
-      <c r="AA2" s="186"/>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="186"/>
-      <c r="AD2" s="186"/>
-      <c r="AE2" s="186"/>
-      <c r="AF2" s="186"/>
-      <c r="AG2" s="186"/>
-      <c r="AH2" s="186"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="180"/>
+      <c r="AA2" s="180"/>
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="180"/>
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="180"/>
+      <c r="AH2" s="180"/>
     </row>
-    <row r="3" spans="1:35" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="63" customHeight="1">
       <c r="A3" s="190" t="s">
         <v>60</v>
       </c>
@@ -29652,68 +29612,68 @@
       <c r="AG3" s="190"/>
       <c r="AH3" s="190"/>
     </row>
-    <row r="4" spans="1:35" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="197" t="s">
+    <row r="4" spans="1:35" ht="172.5" customHeight="1">
+      <c r="A4" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="197" t="s">
+      <c r="B4" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="197" t="s">
+      <c r="C4" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="197" t="s">
+      <c r="D4" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="195" t="s">
+      <c r="E4" s="197" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="195" t="s">
+      <c r="F4" s="197" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="179" t="s">
+      <c r="H4" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179" t="s">
-        <v>839</v>
-      </c>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179" t="s">
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185" t="s">
+        <v>838</v>
+      </c>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="179"/>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="182" t="s">
+      <c r="O4" s="185"/>
+      <c r="P4" s="185"/>
+      <c r="Q4" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="183"/>
-      <c r="S4" s="184"/>
-      <c r="T4" s="179" t="s">
-        <v>842</v>
-      </c>
-      <c r="U4" s="179"/>
-      <c r="V4" s="179"/>
-      <c r="W4" s="179" t="s">
+      <c r="R4" s="187"/>
+      <c r="S4" s="188"/>
+      <c r="T4" s="185" t="s">
+        <v>841</v>
+      </c>
+      <c r="U4" s="185"/>
+      <c r="V4" s="185"/>
+      <c r="W4" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="X4" s="179"/>
-      <c r="Y4" s="179"/>
-      <c r="Z4" s="182" t="s">
+      <c r="X4" s="185"/>
+      <c r="Y4" s="185"/>
+      <c r="Z4" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="AA4" s="183"/>
-      <c r="AB4" s="184"/>
-      <c r="AC4" s="179" t="s">
+      <c r="AA4" s="187"/>
+      <c r="AB4" s="188"/>
+      <c r="AC4" s="185" t="s">
         <v>47</v>
       </c>
-      <c r="AD4" s="179"/>
-      <c r="AE4" s="179"/>
+      <c r="AD4" s="185"/>
+      <c r="AE4" s="185"/>
       <c r="AF4" s="73" t="s">
         <v>42</v>
       </c>
@@ -29727,13 +29687,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="197"/>
-      <c r="B5" s="197"/>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
+    <row r="5" spans="1:35" ht="61.5" customHeight="1">
+      <c r="A5" s="195"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
       <c r="G5" s="2"/>
       <c r="H5" s="39" t="s">
         <v>6</v>
@@ -29812,13 +29772,13 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="79"/>
     </row>
-    <row r="6" spans="1:35" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="197"/>
-      <c r="B6" s="197"/>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
+    <row r="6" spans="1:35" ht="61.5" customHeight="1">
+      <c r="A6" s="195"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
       <c r="G6" s="11" t="s">
         <v>2</v>
       </c>
@@ -29912,13 +29872,13 @@
       <c r="AH6" s="4"/>
       <c r="AI6" s="64"/>
     </row>
-    <row r="7" spans="1:35" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="198"/>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
+    <row r="7" spans="1:35" ht="55.5" customHeight="1">
+      <c r="A7" s="196"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="198"/>
+      <c r="F7" s="198"/>
       <c r="G7" s="80" t="s">
         <v>3</v>
       </c>
@@ -29979,7 +29939,7 @@
       <c r="AH7" s="6"/>
       <c r="AI7" s="81"/>
     </row>
-    <row r="8" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="76.5" customHeight="1">
       <c r="A8" s="157">
         <v>1</v>
       </c>
@@ -29993,10 +29953,10 @@
         <v>200701</v>
       </c>
       <c r="E8" s="159" t="s">
+        <v>738</v>
+      </c>
+      <c r="F8" s="159" t="s">
         <v>739</v>
-      </c>
-      <c r="F8" s="159" t="s">
-        <v>740</v>
       </c>
       <c r="G8" s="160"/>
       <c r="H8" s="161">
@@ -30087,11 +30047,11 @@
         <v>667</v>
       </c>
       <c r="AH8" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI8" s="81"/>
     </row>
-    <row r="9" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" ht="76.5" customHeight="1">
       <c r="A9" s="164">
         <v>2</v>
       </c>
@@ -30105,10 +30065,10 @@
         <v>200702</v>
       </c>
       <c r="E9" s="159" t="s">
+        <v>740</v>
+      </c>
+      <c r="F9" s="159" t="s">
         <v>741</v>
-      </c>
-      <c r="F9" s="159" t="s">
-        <v>742</v>
       </c>
       <c r="G9" s="165"/>
       <c r="H9" s="161">
@@ -30199,11 +30159,11 @@
         <v>725</v>
       </c>
       <c r="AH9" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI9" s="81"/>
     </row>
-    <row r="10" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" ht="76.5" customHeight="1">
       <c r="A10" s="157">
         <v>3</v>
       </c>
@@ -30217,10 +30177,10 @@
         <v>200703</v>
       </c>
       <c r="E10" s="159" t="s">
+        <v>742</v>
+      </c>
+      <c r="F10" s="159" t="s">
         <v>743</v>
-      </c>
-      <c r="F10" s="159" t="s">
-        <v>744</v>
       </c>
       <c r="G10" s="165"/>
       <c r="H10" s="161">
@@ -30311,11 +30271,11 @@
         <v>759</v>
       </c>
       <c r="AH10" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI10" s="82"/>
     </row>
-    <row r="11" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" ht="76.5" customHeight="1">
       <c r="A11" s="164">
         <v>4</v>
       </c>
@@ -30329,10 +30289,10 @@
         <v>200704</v>
       </c>
       <c r="E11" s="159" t="s">
+        <v>744</v>
+      </c>
+      <c r="F11" s="159" t="s">
         <v>745</v>
-      </c>
-      <c r="F11" s="159" t="s">
-        <v>746</v>
       </c>
       <c r="G11" s="165"/>
       <c r="H11" s="161">
@@ -30423,11 +30383,11 @@
         <v>657</v>
       </c>
       <c r="AH11" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI11" s="82"/>
     </row>
-    <row r="12" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" ht="76.5" customHeight="1">
       <c r="A12" s="157">
         <v>5</v>
       </c>
@@ -30441,10 +30401,10 @@
         <v>200705</v>
       </c>
       <c r="E12" s="159" t="s">
+        <v>746</v>
+      </c>
+      <c r="F12" s="159" t="s">
         <v>747</v>
-      </c>
-      <c r="F12" s="159" t="s">
-        <v>748</v>
       </c>
       <c r="G12" s="165"/>
       <c r="H12" s="161">
@@ -30535,11 +30495,11 @@
         <v>558</v>
       </c>
       <c r="AH12" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI12" s="82"/>
     </row>
-    <row r="13" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" ht="76.5" customHeight="1">
       <c r="A13" s="164">
         <v>6</v>
       </c>
@@ -30553,10 +30513,10 @@
         <v>200706</v>
       </c>
       <c r="E13" s="159" t="s">
+        <v>748</v>
+      </c>
+      <c r="F13" s="159" t="s">
         <v>749</v>
-      </c>
-      <c r="F13" s="159" t="s">
-        <v>750</v>
       </c>
       <c r="G13" s="165"/>
       <c r="H13" s="161">
@@ -30647,11 +30607,11 @@
         <v>587</v>
       </c>
       <c r="AH13" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI13" s="82"/>
     </row>
-    <row r="14" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" ht="76.5" customHeight="1">
       <c r="A14" s="157">
         <v>7</v>
       </c>
@@ -30665,10 +30625,10 @@
         <v>200707</v>
       </c>
       <c r="E14" s="159" t="s">
+        <v>750</v>
+      </c>
+      <c r="F14" s="159" t="s">
         <v>751</v>
-      </c>
-      <c r="F14" s="159" t="s">
-        <v>752</v>
       </c>
       <c r="G14" s="165"/>
       <c r="H14" s="161">
@@ -30759,11 +30719,11 @@
         <v>704</v>
       </c>
       <c r="AH14" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI14" s="82"/>
     </row>
-    <row r="15" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" ht="76.5" customHeight="1">
       <c r="A15" s="164">
         <v>8</v>
       </c>
@@ -30777,10 +30737,10 @@
         <v>200708</v>
       </c>
       <c r="E15" s="159" t="s">
+        <v>752</v>
+      </c>
+      <c r="F15" s="159" t="s">
         <v>753</v>
-      </c>
-      <c r="F15" s="159" t="s">
-        <v>754</v>
       </c>
       <c r="G15" s="165"/>
       <c r="H15" s="161">
@@ -30871,11 +30831,11 @@
         <v>770</v>
       </c>
       <c r="AH15" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI15" s="82"/>
     </row>
-    <row r="16" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" ht="76.5" customHeight="1">
       <c r="A16" s="157">
         <v>9</v>
       </c>
@@ -30889,10 +30849,10 @@
         <v>200709</v>
       </c>
       <c r="E16" s="159" t="s">
+        <v>754</v>
+      </c>
+      <c r="F16" s="159" t="s">
         <v>755</v>
-      </c>
-      <c r="F16" s="159" t="s">
-        <v>756</v>
       </c>
       <c r="G16" s="165"/>
       <c r="H16" s="161">
@@ -30983,11 +30943,11 @@
         <v>750</v>
       </c>
       <c r="AH16" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI16" s="82"/>
     </row>
-    <row r="17" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" ht="76.5" customHeight="1">
       <c r="A17" s="164">
         <v>10</v>
       </c>
@@ -31001,10 +30961,10 @@
         <v>200710</v>
       </c>
       <c r="E17" s="159" t="s">
+        <v>756</v>
+      </c>
+      <c r="F17" s="159" t="s">
         <v>757</v>
-      </c>
-      <c r="F17" s="159" t="s">
-        <v>758</v>
       </c>
       <c r="G17" s="165"/>
       <c r="H17" s="161">
@@ -31095,11 +31055,11 @@
         <v>712</v>
       </c>
       <c r="AH17" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI17" s="82"/>
     </row>
-    <row r="18" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" ht="76.5" customHeight="1">
       <c r="A18" s="157">
         <v>11</v>
       </c>
@@ -31113,10 +31073,10 @@
         <v>200711</v>
       </c>
       <c r="E18" s="159" t="s">
+        <v>758</v>
+      </c>
+      <c r="F18" s="159" t="s">
         <v>759</v>
-      </c>
-      <c r="F18" s="159" t="s">
-        <v>760</v>
       </c>
       <c r="G18" s="165"/>
       <c r="H18" s="161">
@@ -31207,11 +31167,11 @@
         <v>749</v>
       </c>
       <c r="AH18" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI18" s="82"/>
     </row>
-    <row r="19" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" ht="76.5" customHeight="1">
       <c r="A19" s="164">
         <v>12</v>
       </c>
@@ -31225,10 +31185,10 @@
         <v>200712</v>
       </c>
       <c r="E19" s="159" t="s">
+        <v>760</v>
+      </c>
+      <c r="F19" s="159" t="s">
         <v>761</v>
-      </c>
-      <c r="F19" s="159" t="s">
-        <v>762</v>
       </c>
       <c r="G19" s="165"/>
       <c r="H19" s="161">
@@ -31319,11 +31279,11 @@
         <v>674</v>
       </c>
       <c r="AH19" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI19" s="82"/>
     </row>
-    <row r="20" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" ht="76.5" customHeight="1">
       <c r="A20" s="157">
         <v>13</v>
       </c>
@@ -31337,10 +31297,10 @@
         <v>200713</v>
       </c>
       <c r="E20" s="159" t="s">
+        <v>762</v>
+      </c>
+      <c r="F20" s="159" t="s">
         <v>763</v>
-      </c>
-      <c r="F20" s="159" t="s">
-        <v>764</v>
       </c>
       <c r="G20" s="165"/>
       <c r="H20" s="161">
@@ -31431,13 +31391,13 @@
         <v>586</v>
       </c>
       <c r="AH20" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI20" s="82" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" ht="76.5" customHeight="1">
       <c r="A21" s="164">
         <v>14</v>
       </c>
@@ -31454,7 +31414,7 @@
         <v>96</v>
       </c>
       <c r="F21" s="159" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G21" s="165"/>
       <c r="H21" s="161">
@@ -31545,11 +31505,11 @@
         <v>800</v>
       </c>
       <c r="AH21" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI21" s="82"/>
     </row>
-    <row r="22" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" ht="76.5" customHeight="1">
       <c r="A22" s="157">
         <v>15</v>
       </c>
@@ -31563,10 +31523,10 @@
         <v>200715</v>
       </c>
       <c r="E22" s="159" t="s">
+        <v>765</v>
+      </c>
+      <c r="F22" s="159" t="s">
         <v>766</v>
-      </c>
-      <c r="F22" s="159" t="s">
-        <v>767</v>
       </c>
       <c r="G22" s="165"/>
       <c r="H22" s="161">
@@ -31657,11 +31617,11 @@
         <v>734</v>
       </c>
       <c r="AH22" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI22" s="82"/>
     </row>
-    <row r="23" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" ht="76.5" customHeight="1">
       <c r="A23" s="164">
         <v>16</v>
       </c>
@@ -31675,10 +31635,10 @@
         <v>200716</v>
       </c>
       <c r="E23" s="159" t="s">
+        <v>767</v>
+      </c>
+      <c r="F23" s="159" t="s">
         <v>768</v>
-      </c>
-      <c r="F23" s="159" t="s">
-        <v>769</v>
       </c>
       <c r="G23" s="165"/>
       <c r="H23" s="161">
@@ -31769,11 +31729,11 @@
         <v>680</v>
       </c>
       <c r="AH23" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI23" s="82"/>
     </row>
-    <row r="24" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" ht="76.5" customHeight="1">
       <c r="A24" s="157">
         <v>17</v>
       </c>
@@ -31787,10 +31747,10 @@
         <v>200717</v>
       </c>
       <c r="E24" s="159" t="s">
+        <v>769</v>
+      </c>
+      <c r="F24" s="159" t="s">
         <v>770</v>
-      </c>
-      <c r="F24" s="159" t="s">
-        <v>771</v>
       </c>
       <c r="G24" s="165"/>
       <c r="H24" s="161">
@@ -31814,7 +31774,7 @@
         <v>108</v>
       </c>
       <c r="N24" s="161" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O24" s="161">
         <v>41</v>
@@ -31881,13 +31841,13 @@
         <v>616</v>
       </c>
       <c r="AH24" s="57" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AI24" s="82" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" ht="76.5" customHeight="1">
       <c r="A25" s="164">
         <v>18</v>
       </c>
@@ -31901,10 +31861,10 @@
         <v>200718</v>
       </c>
       <c r="E25" s="159" t="s">
+        <v>771</v>
+      </c>
+      <c r="F25" s="159" t="s">
         <v>772</v>
-      </c>
-      <c r="F25" s="159" t="s">
-        <v>773</v>
       </c>
       <c r="G25" s="165"/>
       <c r="H25" s="161">
@@ -31995,11 +31955,11 @@
         <v>647</v>
       </c>
       <c r="AH25" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI25" s="82"/>
     </row>
-    <row r="26" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" ht="76.5" customHeight="1">
       <c r="A26" s="157">
         <v>19</v>
       </c>
@@ -32013,7 +31973,7 @@
         <v>200719</v>
       </c>
       <c r="E26" s="159" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F26" s="159" t="s">
         <v>414</v>
@@ -32107,11 +32067,11 @@
         <v>716</v>
       </c>
       <c r="AH26" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI26" s="82"/>
     </row>
-    <row r="27" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" ht="76.5" customHeight="1">
       <c r="A27" s="164">
         <v>20</v>
       </c>
@@ -32125,10 +32085,10 @@
         <v>200720</v>
       </c>
       <c r="E27" s="159" t="s">
+        <v>774</v>
+      </c>
+      <c r="F27" s="159" t="s">
         <v>775</v>
-      </c>
-      <c r="F27" s="159" t="s">
-        <v>776</v>
       </c>
       <c r="G27" s="165"/>
       <c r="H27" s="161">
@@ -32219,11 +32179,11 @@
         <v>747</v>
       </c>
       <c r="AH27" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI27" s="82"/>
     </row>
-    <row r="28" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" ht="76.5" customHeight="1">
       <c r="A28" s="157">
         <v>21</v>
       </c>
@@ -32237,10 +32197,10 @@
         <v>200721</v>
       </c>
       <c r="E28" s="159" t="s">
+        <v>776</v>
+      </c>
+      <c r="F28" s="159" t="s">
         <v>777</v>
-      </c>
-      <c r="F28" s="159" t="s">
-        <v>778</v>
       </c>
       <c r="G28" s="165"/>
       <c r="H28" s="161">
@@ -32331,11 +32291,11 @@
         <v>603</v>
       </c>
       <c r="AH28" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI28" s="82"/>
     </row>
-    <row r="29" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" ht="76.5" customHeight="1">
       <c r="A29" s="164">
         <v>22</v>
       </c>
@@ -32349,10 +32309,10 @@
         <v>200722</v>
       </c>
       <c r="E29" s="159" t="s">
+        <v>778</v>
+      </c>
+      <c r="F29" s="159" t="s">
         <v>779</v>
-      </c>
-      <c r="F29" s="159" t="s">
-        <v>780</v>
       </c>
       <c r="G29" s="165"/>
       <c r="H29" s="161">
@@ -32443,11 +32403,11 @@
         <v>767</v>
       </c>
       <c r="AH29" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI29" s="82"/>
     </row>
-    <row r="30" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" ht="76.5" customHeight="1">
       <c r="A30" s="157">
         <v>23</v>
       </c>
@@ -32461,10 +32421,10 @@
         <v>200724</v>
       </c>
       <c r="E30" s="159" t="s">
+        <v>780</v>
+      </c>
+      <c r="F30" s="159" t="s">
         <v>781</v>
-      </c>
-      <c r="F30" s="159" t="s">
-        <v>782</v>
       </c>
       <c r="G30" s="165"/>
       <c r="H30" s="161">
@@ -32555,11 +32515,11 @@
         <v>670</v>
       </c>
       <c r="AH30" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI30" s="82"/>
     </row>
-    <row r="31" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" ht="76.5" customHeight="1">
       <c r="A31" s="164">
         <v>24</v>
       </c>
@@ -32573,10 +32533,10 @@
         <v>200725</v>
       </c>
       <c r="E31" s="159" t="s">
+        <v>782</v>
+      </c>
+      <c r="F31" s="159" t="s">
         <v>783</v>
-      </c>
-      <c r="F31" s="159" t="s">
-        <v>784</v>
       </c>
       <c r="G31" s="165"/>
       <c r="H31" s="161">
@@ -32667,11 +32627,11 @@
         <v>673</v>
       </c>
       <c r="AH31" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI31" s="82"/>
     </row>
-    <row r="32" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" ht="76.5" customHeight="1">
       <c r="A32" s="157">
         <v>25</v>
       </c>
@@ -32685,10 +32645,10 @@
         <v>200726</v>
       </c>
       <c r="E32" s="159" t="s">
+        <v>784</v>
+      </c>
+      <c r="F32" s="159" t="s">
         <v>785</v>
-      </c>
-      <c r="F32" s="159" t="s">
-        <v>786</v>
       </c>
       <c r="G32" s="165"/>
       <c r="H32" s="161">
@@ -32779,13 +32739,13 @@
         <v>469</v>
       </c>
       <c r="AH32" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI32" s="82" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" ht="76.5" customHeight="1">
       <c r="A33" s="164">
         <v>26</v>
       </c>
@@ -32799,10 +32759,10 @@
         <v>200727</v>
       </c>
       <c r="E33" s="159" t="s">
+        <v>786</v>
+      </c>
+      <c r="F33" s="159" t="s">
         <v>787</v>
-      </c>
-      <c r="F33" s="159" t="s">
-        <v>788</v>
       </c>
       <c r="G33" s="165"/>
       <c r="H33" s="161">
@@ -32893,11 +32853,11 @@
         <v>641</v>
       </c>
       <c r="AH33" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI33" s="82"/>
     </row>
-    <row r="34" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" ht="76.5" customHeight="1">
       <c r="A34" s="157">
         <v>27</v>
       </c>
@@ -32911,10 +32871,10 @@
         <v>200728</v>
       </c>
       <c r="E34" s="159" t="s">
+        <v>788</v>
+      </c>
+      <c r="F34" s="159" t="s">
         <v>789</v>
-      </c>
-      <c r="F34" s="159" t="s">
-        <v>790</v>
       </c>
       <c r="G34" s="165"/>
       <c r="H34" s="161">
@@ -33005,11 +32965,11 @@
         <v>575</v>
       </c>
       <c r="AH34" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI34" s="82"/>
     </row>
-    <row r="35" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" ht="76.5" customHeight="1">
       <c r="A35" s="164">
         <v>28</v>
       </c>
@@ -33023,10 +32983,10 @@
         <v>200729</v>
       </c>
       <c r="E35" s="159" t="s">
+        <v>790</v>
+      </c>
+      <c r="F35" s="159" t="s">
         <v>791</v>
-      </c>
-      <c r="F35" s="159" t="s">
-        <v>792</v>
       </c>
       <c r="G35" s="165"/>
       <c r="H35" s="161">
@@ -33050,7 +33010,7 @@
         <v>106</v>
       </c>
       <c r="N35" s="161" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O35" s="161">
         <v>43</v>
@@ -33117,13 +33077,13 @@
         <v>630</v>
       </c>
       <c r="AH35" s="57" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AI35" s="82" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" ht="76.5" customHeight="1">
       <c r="A36" s="157">
         <v>29</v>
       </c>
@@ -33137,10 +33097,10 @@
         <v>200730</v>
       </c>
       <c r="E36" s="159" t="s">
+        <v>792</v>
+      </c>
+      <c r="F36" s="159" t="s">
         <v>793</v>
-      </c>
-      <c r="F36" s="159" t="s">
-        <v>794</v>
       </c>
       <c r="G36" s="165"/>
       <c r="H36" s="161">
@@ -33231,11 +33191,11 @@
         <v>706</v>
       </c>
       <c r="AH36" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI36" s="82"/>
     </row>
-    <row r="37" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" ht="76.5" customHeight="1">
       <c r="A37" s="164">
         <v>30</v>
       </c>
@@ -33249,10 +33209,10 @@
         <v>200731</v>
       </c>
       <c r="E37" s="159" t="s">
+        <v>794</v>
+      </c>
+      <c r="F37" s="159" t="s">
         <v>795</v>
-      </c>
-      <c r="F37" s="159" t="s">
-        <v>796</v>
       </c>
       <c r="G37" s="165"/>
       <c r="H37" s="161">
@@ -33343,11 +33303,11 @@
         <v>656</v>
       </c>
       <c r="AH37" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI37" s="82"/>
     </row>
-    <row r="38" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" ht="76.5" customHeight="1">
       <c r="A38" s="157">
         <v>31</v>
       </c>
@@ -33361,10 +33321,10 @@
         <v>200732</v>
       </c>
       <c r="E38" s="159" t="s">
+        <v>796</v>
+      </c>
+      <c r="F38" s="159" t="s">
         <v>797</v>
-      </c>
-      <c r="F38" s="159" t="s">
-        <v>798</v>
       </c>
       <c r="G38" s="165"/>
       <c r="H38" s="161">
@@ -33455,11 +33415,11 @@
         <v>748</v>
       </c>
       <c r="AH38" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI38" s="82"/>
     </row>
-    <row r="39" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" ht="76.5" customHeight="1">
       <c r="A39" s="164">
         <v>32</v>
       </c>
@@ -33473,10 +33433,10 @@
         <v>200733</v>
       </c>
       <c r="E39" s="159" t="s">
+        <v>798</v>
+      </c>
+      <c r="F39" s="159" t="s">
         <v>799</v>
-      </c>
-      <c r="F39" s="159" t="s">
-        <v>800</v>
       </c>
       <c r="G39" s="165"/>
       <c r="H39" s="161">
@@ -33567,11 +33527,11 @@
         <v>673</v>
       </c>
       <c r="AH39" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI39" s="82"/>
     </row>
-    <row r="40" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" ht="76.5" customHeight="1">
       <c r="A40" s="157">
         <v>33</v>
       </c>
@@ -33585,10 +33545,10 @@
         <v>200734</v>
       </c>
       <c r="E40" s="159" t="s">
+        <v>800</v>
+      </c>
+      <c r="F40" s="159" t="s">
         <v>801</v>
-      </c>
-      <c r="F40" s="159" t="s">
-        <v>802</v>
       </c>
       <c r="G40" s="165"/>
       <c r="H40" s="161">
@@ -33679,11 +33639,11 @@
         <v>835</v>
       </c>
       <c r="AH40" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI40" s="82"/>
     </row>
-    <row r="41" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" ht="76.5" customHeight="1">
       <c r="A41" s="164">
         <v>34</v>
       </c>
@@ -33697,10 +33657,10 @@
         <v>200735</v>
       </c>
       <c r="E41" s="159" t="s">
+        <v>802</v>
+      </c>
+      <c r="F41" s="159" t="s">
         <v>803</v>
-      </c>
-      <c r="F41" s="159" t="s">
-        <v>804</v>
       </c>
       <c r="G41" s="165"/>
       <c r="H41" s="161">
@@ -33791,11 +33751,11 @@
         <v>749</v>
       </c>
       <c r="AH41" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI41" s="82"/>
     </row>
-    <row r="42" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" ht="76.5" customHeight="1">
       <c r="A42" s="157">
         <v>35</v>
       </c>
@@ -33809,10 +33769,10 @@
         <v>200736</v>
       </c>
       <c r="E42" s="159" t="s">
+        <v>804</v>
+      </c>
+      <c r="F42" s="159" t="s">
         <v>805</v>
-      </c>
-      <c r="F42" s="159" t="s">
-        <v>806</v>
       </c>
       <c r="G42" s="165"/>
       <c r="H42" s="161">
@@ -33903,11 +33863,11 @@
         <v>749</v>
       </c>
       <c r="AH42" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI42" s="82"/>
     </row>
-    <row r="43" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" ht="76.5" customHeight="1">
       <c r="A43" s="164">
         <v>36</v>
       </c>
@@ -33921,10 +33881,10 @@
         <v>200737</v>
       </c>
       <c r="E43" s="159" t="s">
+        <v>806</v>
+      </c>
+      <c r="F43" s="159" t="s">
         <v>807</v>
-      </c>
-      <c r="F43" s="159" t="s">
-        <v>808</v>
       </c>
       <c r="G43" s="165"/>
       <c r="H43" s="161">
@@ -34015,11 +33975,11 @@
         <v>753</v>
       </c>
       <c r="AH43" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI43" s="82"/>
     </row>
-    <row r="44" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" ht="76.5" customHeight="1">
       <c r="A44" s="157">
         <v>37</v>
       </c>
@@ -34033,10 +33993,10 @@
         <v>200738</v>
       </c>
       <c r="E44" s="159" t="s">
+        <v>808</v>
+      </c>
+      <c r="F44" s="159" t="s">
         <v>809</v>
-      </c>
-      <c r="F44" s="159" t="s">
-        <v>810</v>
       </c>
       <c r="G44" s="165"/>
       <c r="H44" s="161">
@@ -34127,11 +34087,11 @@
         <v>754</v>
       </c>
       <c r="AH44" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI44" s="82"/>
     </row>
-    <row r="45" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" ht="76.5" customHeight="1">
       <c r="A45" s="164">
         <v>38</v>
       </c>
@@ -34145,10 +34105,10 @@
         <v>200739</v>
       </c>
       <c r="E45" s="159" t="s">
+        <v>810</v>
+      </c>
+      <c r="F45" s="159" t="s">
         <v>811</v>
-      </c>
-      <c r="F45" s="159" t="s">
-        <v>812</v>
       </c>
       <c r="G45" s="165"/>
       <c r="H45" s="161">
@@ -34239,11 +34199,11 @@
         <v>699</v>
       </c>
       <c r="AH45" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI45" s="83"/>
     </row>
-    <row r="46" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" ht="76.5" customHeight="1">
       <c r="A46" s="157">
         <v>39</v>
       </c>
@@ -34257,10 +34217,10 @@
         <v>200740</v>
       </c>
       <c r="E46" s="159" t="s">
+        <v>812</v>
+      </c>
+      <c r="F46" s="159" t="s">
         <v>813</v>
-      </c>
-      <c r="F46" s="159" t="s">
-        <v>814</v>
       </c>
       <c r="G46" s="165"/>
       <c r="H46" s="161">
@@ -34351,11 +34311,11 @@
         <v>811</v>
       </c>
       <c r="AH46" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI46" s="82"/>
     </row>
-    <row r="47" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" ht="76.5" customHeight="1">
       <c r="A47" s="164">
         <v>40</v>
       </c>
@@ -34369,10 +34329,10 @@
         <v>200741</v>
       </c>
       <c r="E47" s="159" t="s">
+        <v>814</v>
+      </c>
+      <c r="F47" s="159" t="s">
         <v>815</v>
-      </c>
-      <c r="F47" s="159" t="s">
-        <v>816</v>
       </c>
       <c r="G47" s="165"/>
       <c r="H47" s="161">
@@ -34396,7 +34356,7 @@
         <v>113</v>
       </c>
       <c r="N47" s="161" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O47" s="161">
         <v>43</v>
@@ -34463,13 +34423,13 @@
         <v>612</v>
       </c>
       <c r="AH47" s="57" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AI47" s="82" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" ht="76.5" customHeight="1">
       <c r="A48" s="157">
         <v>41</v>
       </c>
@@ -34483,10 +34443,10 @@
         <v>200742</v>
       </c>
       <c r="E48" s="159" t="s">
+        <v>816</v>
+      </c>
+      <c r="F48" s="159" t="s">
         <v>817</v>
-      </c>
-      <c r="F48" s="159" t="s">
-        <v>818</v>
       </c>
       <c r="G48" s="165"/>
       <c r="H48" s="161">
@@ -34577,11 +34537,11 @@
         <v>723</v>
       </c>
       <c r="AH48" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI48" s="82"/>
     </row>
-    <row r="49" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" ht="76.5" customHeight="1">
       <c r="A49" s="164">
         <v>42</v>
       </c>
@@ -34595,10 +34555,10 @@
         <v>200743</v>
       </c>
       <c r="E49" s="159" t="s">
+        <v>818</v>
+      </c>
+      <c r="F49" s="159" t="s">
         <v>819</v>
-      </c>
-      <c r="F49" s="159" t="s">
-        <v>820</v>
       </c>
       <c r="G49" s="165"/>
       <c r="H49" s="161">
@@ -34689,12 +34649,14 @@
         <v>728</v>
       </c>
       <c r="AH49" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AI49" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:AH2"/>
     <mergeCell ref="A3:AH3"/>
@@ -34710,8 +34672,6 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
   </mergeCells>
   <conditionalFormatting sqref="AB8:AB49 AE8:AE49">
     <cfRule type="cellIs" dxfId="52" priority="26" stopIfTrue="1" operator="lessThan">
@@ -34835,27 +34795,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G4" sqref="A4:IV4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" customWidth="1"/>
+    <col min="2" max="4" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="33.109375" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" customWidth="1"/>
-    <col min="30" max="30" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="28" max="28" width="13.109375" customWidth="1"/>
+    <col min="29" max="29" width="16.33203125" customWidth="1"/>
+    <col min="30" max="30" width="17.33203125" customWidth="1"/>
     <col min="31" max="31" width="22" customWidth="1"/>
-    <col min="32" max="32" width="25.140625" customWidth="1"/>
+    <col min="32" max="32" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="70.5" customHeight="1">
       <c r="A1" s="189" t="s">
         <v>18</v>
       </c>
@@ -34891,7 +34851,7 @@
       <c r="AE1" s="189"/>
       <c r="AF1" s="189"/>
     </row>
-    <row r="2" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="70.5" customHeight="1">
       <c r="A2" s="189" t="s">
         <v>21</v>
       </c>
@@ -34927,7 +34887,7 @@
       <c r="AE2" s="189"/>
       <c r="AF2" s="189"/>
     </row>
-    <row r="3" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="70.5" customHeight="1">
       <c r="A3" s="190" t="s">
         <v>61</v>
       </c>
@@ -34963,63 +34923,63 @@
       <c r="AE3" s="190"/>
       <c r="AF3" s="190"/>
     </row>
-    <row r="4" spans="1:32" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="180" t="s">
+    <row r="4" spans="1:32" ht="144.75" customHeight="1">
+      <c r="A4" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="180" t="s">
+      <c r="D4" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="187" t="s">
+      <c r="E4" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="187" t="s">
+      <c r="F4" s="183" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="179" t="s">
+      <c r="H4" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179" t="s">
-        <v>839</v>
-      </c>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179" t="s">
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185" t="s">
+        <v>838</v>
+      </c>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="179"/>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="179" t="s">
+      <c r="O4" s="185"/>
+      <c r="P4" s="185"/>
+      <c r="Q4" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="179"/>
-      <c r="S4" s="179"/>
-      <c r="T4" s="179" t="s">
+      <c r="R4" s="185"/>
+      <c r="S4" s="185"/>
+      <c r="T4" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="179"/>
-      <c r="V4" s="179"/>
-      <c r="W4" s="179" t="s">
-        <v>843</v>
-      </c>
-      <c r="X4" s="179"/>
-      <c r="Y4" s="179"/>
-      <c r="Z4" s="179" t="s">
+      <c r="U4" s="185"/>
+      <c r="V4" s="185"/>
+      <c r="W4" s="185" t="s">
+        <v>842</v>
+      </c>
+      <c r="X4" s="185"/>
+      <c r="Y4" s="185"/>
+      <c r="Z4" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="179"/>
-      <c r="AB4" s="179"/>
+      <c r="AA4" s="185"/>
+      <c r="AB4" s="185"/>
       <c r="AC4" s="100" t="s">
         <v>29</v>
       </c>
@@ -35033,13 +34993,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="180"/>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
+    <row r="5" spans="1:32" ht="38.25" customHeight="1">
+      <c r="A5" s="181"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
       <c r="G5" s="45"/>
       <c r="H5" s="7" t="s">
         <v>6</v>
@@ -35109,13 +35069,13 @@
       <c r="AE5" s="19"/>
       <c r="AF5" s="19"/>
     </row>
-    <row r="6" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="180"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
+    <row r="6" spans="1:32" ht="38.25" customHeight="1">
+      <c r="A6" s="181"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
       <c r="G6" s="45" t="s">
         <v>2</v>
       </c>
@@ -35199,13 +35159,13 @@
       <c r="AE6" s="21"/>
       <c r="AF6" s="21"/>
     </row>
-    <row r="7" spans="1:32" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="181"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
+    <row r="7" spans="1:32" ht="15.6">
+      <c r="A7" s="182"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
       <c r="G7" s="46" t="s">
         <v>3</v>
       </c>
@@ -35265,7 +35225,7 @@
       <c r="AE7" s="24"/>
       <c r="AF7" s="24"/>
     </row>
-    <row r="8" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="72" customHeight="1">
       <c r="A8" s="172">
         <v>1</v>
       </c>
@@ -35306,7 +35266,7 @@
         <v>108</v>
       </c>
       <c r="N8" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O8" s="68">
         <v>52</v>
@@ -35356,11 +35316,11 @@
         <v>399</v>
       </c>
       <c r="AE8" s="171" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AF8" s="170"/>
     </row>
-    <row r="9" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="72" customHeight="1">
       <c r="A9" s="172">
         <v>2</v>
       </c>
@@ -35451,11 +35411,11 @@
         <v>555</v>
       </c>
       <c r="AE9" s="143" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF9" s="169"/>
     </row>
-    <row r="10" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="72" customHeight="1">
       <c r="A10" s="172">
         <v>3</v>
       </c>
@@ -35546,11 +35506,11 @@
         <v>610</v>
       </c>
       <c r="AE10" s="143" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF10" s="169"/>
     </row>
-    <row r="11" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="72" customHeight="1">
       <c r="A11" s="172">
         <v>4</v>
       </c>
@@ -35641,11 +35601,11 @@
         <v>662</v>
       </c>
       <c r="AE11" s="143" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF11" s="169"/>
     </row>
-    <row r="12" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="72" customHeight="1">
       <c r="A12" s="172">
         <v>5</v>
       </c>
@@ -35736,11 +35696,11 @@
         <v>643</v>
       </c>
       <c r="AE12" s="143" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF12" s="169"/>
     </row>
-    <row r="13" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="72" customHeight="1">
       <c r="A13" s="172">
         <v>6</v>
       </c>
@@ -35754,10 +35714,10 @@
         <v>200907</v>
       </c>
       <c r="E13" s="118" t="s">
+        <v>849</v>
+      </c>
+      <c r="F13" s="118" t="s">
         <v>719</v>
-      </c>
-      <c r="F13" s="118" t="s">
-        <v>720</v>
       </c>
       <c r="G13" s="176"/>
       <c r="H13" s="67">
@@ -35831,11 +35791,11 @@
         <v>636</v>
       </c>
       <c r="AE13" s="143" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF13" s="169"/>
     </row>
-    <row r="14" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="72" customHeight="1">
       <c r="A14" s="172">
         <v>7</v>
       </c>
@@ -35849,10 +35809,10 @@
         <v>200908</v>
       </c>
       <c r="E14" s="118" t="s">
+        <v>720</v>
+      </c>
+      <c r="F14" s="118" t="s">
         <v>721</v>
-      </c>
-      <c r="F14" s="118" t="s">
-        <v>722</v>
       </c>
       <c r="G14" s="176"/>
       <c r="H14" s="67">
@@ -35926,11 +35886,11 @@
         <v>669</v>
       </c>
       <c r="AE14" s="143" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF14" s="169"/>
     </row>
-    <row r="15" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="72" customHeight="1">
       <c r="A15" s="172">
         <v>8</v>
       </c>
@@ -35944,10 +35904,10 @@
         <v>200909</v>
       </c>
       <c r="E15" s="118" t="s">
+        <v>722</v>
+      </c>
+      <c r="F15" s="118" t="s">
         <v>723</v>
-      </c>
-      <c r="F15" s="118" t="s">
-        <v>724</v>
       </c>
       <c r="G15" s="176"/>
       <c r="H15" s="67">
@@ -36021,11 +35981,11 @@
         <v>712</v>
       </c>
       <c r="AE15" s="143" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF15" s="169"/>
     </row>
-    <row r="16" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="72" customHeight="1">
       <c r="A16" s="172">
         <v>9</v>
       </c>
@@ -36039,10 +35999,10 @@
         <v>200910</v>
       </c>
       <c r="E16" s="118" t="s">
+        <v>724</v>
+      </c>
+      <c r="F16" s="118" t="s">
         <v>725</v>
-      </c>
-      <c r="F16" s="118" t="s">
-        <v>726</v>
       </c>
       <c r="G16" s="176"/>
       <c r="H16" s="67">
@@ -36116,11 +36076,11 @@
         <v>641</v>
       </c>
       <c r="AE16" s="143" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF16" s="169"/>
     </row>
-    <row r="17" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="72" customHeight="1">
       <c r="A17" s="172">
         <v>10</v>
       </c>
@@ -36134,10 +36094,10 @@
         <v>200911</v>
       </c>
       <c r="E17" s="118" t="s">
+        <v>726</v>
+      </c>
+      <c r="F17" s="118" t="s">
         <v>727</v>
-      </c>
-      <c r="F17" s="118" t="s">
-        <v>728</v>
       </c>
       <c r="G17" s="176"/>
       <c r="H17" s="67">
@@ -36211,11 +36171,11 @@
         <v>620</v>
       </c>
       <c r="AE17" s="143" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF17" s="169"/>
     </row>
-    <row r="18" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="72" customHeight="1">
       <c r="A18" s="172">
         <v>11</v>
       </c>
@@ -36229,10 +36189,10 @@
         <v>200913</v>
       </c>
       <c r="E18" s="118" t="s">
+        <v>728</v>
+      </c>
+      <c r="F18" s="118" t="s">
         <v>729</v>
-      </c>
-      <c r="F18" s="118" t="s">
-        <v>730</v>
       </c>
       <c r="G18" s="176"/>
       <c r="H18" s="67">
@@ -36256,7 +36216,7 @@
         <v>106</v>
       </c>
       <c r="N18" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O18" s="68">
         <v>54</v>
@@ -36306,11 +36266,11 @@
         <v>496</v>
       </c>
       <c r="AE18" s="171" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AF18" s="169"/>
     </row>
-    <row r="19" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" ht="72" customHeight="1">
       <c r="A19" s="172">
         <v>12</v>
       </c>
@@ -36324,10 +36284,10 @@
         <v>200915</v>
       </c>
       <c r="E19" s="118" t="s">
+        <v>730</v>
+      </c>
+      <c r="F19" s="118" t="s">
         <v>731</v>
-      </c>
-      <c r="F19" s="118" t="s">
-        <v>732</v>
       </c>
       <c r="G19" s="176"/>
       <c r="H19" s="67">
@@ -36401,11 +36361,11 @@
         <v>638</v>
       </c>
       <c r="AE19" s="143" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF19" s="169"/>
     </row>
-    <row r="20" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="72" customHeight="1">
       <c r="A20" s="172">
         <v>13</v>
       </c>
@@ -36419,10 +36379,10 @@
         <v>200917</v>
       </c>
       <c r="E20" s="118" t="s">
+        <v>732</v>
+      </c>
+      <c r="F20" s="118" t="s">
         <v>733</v>
-      </c>
-      <c r="F20" s="118" t="s">
-        <v>734</v>
       </c>
       <c r="G20" s="176"/>
       <c r="H20" s="67">
@@ -36496,11 +36456,11 @@
         <v>651</v>
       </c>
       <c r="AE20" s="143" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF20" s="169"/>
     </row>
-    <row r="21" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" ht="72" customHeight="1">
       <c r="A21" s="172">
         <v>14</v>
       </c>
@@ -36514,10 +36474,10 @@
         <v>200918</v>
       </c>
       <c r="E21" s="118" t="s">
+        <v>734</v>
+      </c>
+      <c r="F21" s="118" t="s">
         <v>735</v>
-      </c>
-      <c r="F21" s="118" t="s">
-        <v>736</v>
       </c>
       <c r="G21" s="176"/>
       <c r="H21" s="67">
@@ -36541,7 +36501,7 @@
         <v>120</v>
       </c>
       <c r="N21" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O21" s="68">
         <v>67</v>
@@ -36591,11 +36551,11 @@
         <v>510</v>
       </c>
       <c r="AE21" s="143" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF21" s="169"/>
     </row>
-    <row r="22" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="72" customHeight="1">
       <c r="A22" s="172">
         <v>15</v>
       </c>
@@ -36609,10 +36569,10 @@
         <v>200919</v>
       </c>
       <c r="E22" s="118" t="s">
+        <v>736</v>
+      </c>
+      <c r="F22" s="118" t="s">
         <v>737</v>
-      </c>
-      <c r="F22" s="118" t="s">
-        <v>738</v>
       </c>
       <c r="G22" s="176"/>
       <c r="H22" s="67">
@@ -36686,7 +36646,7 @@
         <v>525</v>
       </c>
       <c r="AE22" s="143" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF22" s="169"/>
     </row>
@@ -36771,194 +36731,194 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF58"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G4" sqref="A4:IV4"/>
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="37.88671875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="28" width="10.28515625" customWidth="1"/>
-    <col min="29" max="29" width="18.28515625" customWidth="1"/>
+    <col min="8" max="28" width="10.33203125" customWidth="1"/>
+    <col min="29" max="29" width="18.33203125" customWidth="1"/>
     <col min="30" max="30" width="20" customWidth="1"/>
-    <col min="31" max="31" width="30.7109375" customWidth="1"/>
-    <col min="32" max="32" width="33.7109375" customWidth="1"/>
+    <col min="31" max="31" width="30.6640625" customWidth="1"/>
+    <col min="32" max="32" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="200" t="s">
+    <row r="1" spans="1:32" ht="63.75" customHeight="1">
+      <c r="A1" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="200"/>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="200"/>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="200"/>
-      <c r="AA1" s="200"/>
-      <c r="AB1" s="200"/>
-      <c r="AC1" s="200"/>
-      <c r="AD1" s="200"/>
-      <c r="AE1" s="200"/>
-      <c r="AF1" s="200"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="199"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="199"/>
+      <c r="AA1" s="199"/>
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="199"/>
+      <c r="AD1" s="199"/>
+      <c r="AE1" s="199"/>
+      <c r="AF1" s="199"/>
     </row>
-    <row r="2" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="200" t="s">
+    <row r="2" spans="1:32" ht="63.75" customHeight="1">
+      <c r="A2" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="200"/>
-      <c r="AB2" s="200"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="200"/>
-      <c r="AF2" s="200"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
     </row>
-    <row r="3" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="199" t="s">
+    <row r="3" spans="1:32" ht="63.75" customHeight="1">
+      <c r="A3" s="201" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="199"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="199"/>
-      <c r="AA3" s="199"/>
-      <c r="AB3" s="199"/>
-      <c r="AC3" s="199"/>
-      <c r="AD3" s="199"/>
-      <c r="AE3" s="199"/>
-      <c r="AF3" s="199"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="201"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="201"/>
+      <c r="P3" s="201"/>
+      <c r="Q3" s="201"/>
+      <c r="R3" s="201"/>
+      <c r="S3" s="201"/>
+      <c r="T3" s="201"/>
+      <c r="U3" s="201"/>
+      <c r="V3" s="201"/>
+      <c r="W3" s="201"/>
+      <c r="X3" s="201"/>
+      <c r="Y3" s="201"/>
+      <c r="Z3" s="201"/>
+      <c r="AA3" s="201"/>
+      <c r="AB3" s="201"/>
+      <c r="AC3" s="201"/>
+      <c r="AD3" s="201"/>
+      <c r="AE3" s="201"/>
+      <c r="AF3" s="201"/>
     </row>
-    <row r="4" spans="1:32" ht="181.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="197" t="s">
+    <row r="4" spans="1:32" ht="181.5" customHeight="1">
+      <c r="A4" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="197" t="s">
+      <c r="B4" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="197" t="s">
+      <c r="C4" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="197" t="s">
+      <c r="D4" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="195" t="s">
+      <c r="E4" s="197" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="195" t="s">
+      <c r="F4" s="197" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="179" t="s">
+      <c r="H4" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179" t="s">
-        <v>839</v>
-      </c>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179" t="s">
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185" t="s">
+        <v>838</v>
+      </c>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="179"/>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="179" t="s">
+      <c r="O4" s="185"/>
+      <c r="P4" s="185"/>
+      <c r="Q4" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="179"/>
-      <c r="S4" s="179"/>
-      <c r="T4" s="179" t="s">
+      <c r="R4" s="185"/>
+      <c r="S4" s="185"/>
+      <c r="T4" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="179"/>
-      <c r="V4" s="179"/>
-      <c r="W4" s="179" t="s">
+      <c r="U4" s="185"/>
+      <c r="V4" s="185"/>
+      <c r="W4" s="185" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="179"/>
-      <c r="Y4" s="179"/>
-      <c r="Z4" s="179" t="s">
+      <c r="X4" s="185"/>
+      <c r="Y4" s="185"/>
+      <c r="Z4" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="179"/>
-      <c r="AB4" s="179"/>
+      <c r="AA4" s="185"/>
+      <c r="AB4" s="185"/>
       <c r="AC4" s="61" t="s">
         <v>34</v>
       </c>
@@ -36972,13 +36932,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="197"/>
-      <c r="B5" s="197"/>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
+    <row r="5" spans="1:32" ht="39" customHeight="1">
+      <c r="A5" s="195"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
       <c r="G5" s="5"/>
       <c r="H5" s="7" t="s">
         <v>6</v>
@@ -37048,13 +37008,13 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="37"/>
     </row>
-    <row r="6" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="197"/>
-      <c r="B6" s="197"/>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
+    <row r="6" spans="1:32" ht="39" customHeight="1">
+      <c r="A6" s="195"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
       <c r="G6" s="74" t="s">
         <v>2</v>
       </c>
@@ -37137,13 +37097,13 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="28"/>
     </row>
-    <row r="7" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="198"/>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
+    <row r="7" spans="1:32" ht="39" customHeight="1">
+      <c r="A7" s="196"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="198"/>
+      <c r="F7" s="198"/>
       <c r="G7" s="76" t="s">
         <v>3</v>
       </c>
@@ -37203,7 +37163,7 @@
       <c r="AE7" s="6"/>
       <c r="AF7" s="38"/>
     </row>
-    <row r="8" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A8" s="52">
         <v>1</v>
       </c>
@@ -37301,11 +37261,11 @@
         <v>658</v>
       </c>
       <c r="AE8" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF8" s="55"/>
     </row>
-    <row r="9" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A9" s="52">
         <v>2</v>
       </c>
@@ -37403,11 +37363,11 @@
         <v>734</v>
       </c>
       <c r="AE9" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF9" s="55"/>
     </row>
-    <row r="10" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A10" s="52">
         <v>3</v>
       </c>
@@ -37505,11 +37465,11 @@
         <v>688</v>
       </c>
       <c r="AE10" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF10" s="55"/>
     </row>
-    <row r="11" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A11" s="52">
         <v>4</v>
       </c>
@@ -37607,11 +37567,11 @@
         <v>692</v>
       </c>
       <c r="AE11" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF11" s="55"/>
     </row>
-    <row r="12" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A12" s="52">
         <v>5</v>
       </c>
@@ -37709,11 +37669,11 @@
         <v>637</v>
       </c>
       <c r="AE12" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF12" s="55"/>
     </row>
-    <row r="13" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A13" s="52">
         <v>6</v>
       </c>
@@ -37811,11 +37771,11 @@
         <v>640</v>
       </c>
       <c r="AE13" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF13" s="55"/>
     </row>
-    <row r="14" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A14" s="52">
         <v>7</v>
       </c>
@@ -37913,11 +37873,11 @@
         <v>676</v>
       </c>
       <c r="AE14" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF14" s="55"/>
     </row>
-    <row r="15" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A15" s="52">
         <v>8</v>
       </c>
@@ -38015,11 +37975,11 @@
         <v>681</v>
       </c>
       <c r="AE15" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF15" s="55"/>
     </row>
-    <row r="16" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A16" s="52">
         <v>9</v>
       </c>
@@ -38117,11 +38077,11 @@
         <v>690</v>
       </c>
       <c r="AE16" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF16" s="55"/>
     </row>
-    <row r="17" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A17" s="52">
         <v>10</v>
       </c>
@@ -38219,11 +38179,11 @@
         <v>648</v>
       </c>
       <c r="AE17" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF17" s="55"/>
     </row>
-    <row r="18" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A18" s="52">
         <v>11</v>
       </c>
@@ -38321,11 +38281,11 @@
         <v>689</v>
       </c>
       <c r="AE18" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF18" s="55"/>
     </row>
-    <row r="19" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A19" s="52">
         <v>12</v>
       </c>
@@ -38423,11 +38383,11 @@
         <v>623</v>
       </c>
       <c r="AE19" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF19" s="55"/>
     </row>
-    <row r="20" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A20" s="52">
         <v>13</v>
       </c>
@@ -38525,11 +38485,11 @@
         <v>637</v>
       </c>
       <c r="AE20" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF20" s="55"/>
     </row>
-    <row r="21" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A21" s="52">
         <v>14</v>
       </c>
@@ -38627,11 +38587,11 @@
         <v>656</v>
       </c>
       <c r="AE21" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF21" s="55"/>
     </row>
-    <row r="22" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A22" s="52">
         <v>15</v>
       </c>
@@ -38729,11 +38689,11 @@
         <v>656</v>
       </c>
       <c r="AE22" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF22" s="55"/>
     </row>
-    <row r="23" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A23" s="52">
         <v>16</v>
       </c>
@@ -38831,11 +38791,11 @@
         <v>443</v>
       </c>
       <c r="AE23" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF23" s="55"/>
     </row>
-    <row r="24" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A24" s="52">
         <v>17</v>
       </c>
@@ -38933,11 +38893,11 @@
         <v>690</v>
       </c>
       <c r="AE24" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF24" s="55"/>
     </row>
-    <row r="25" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A25" s="52">
         <v>18</v>
       </c>
@@ -39035,11 +38995,11 @@
         <v>724</v>
       </c>
       <c r="AE25" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF25" s="55"/>
     </row>
-    <row r="26" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A26" s="52">
         <v>19</v>
       </c>
@@ -39137,11 +39097,11 @@
         <v>657</v>
       </c>
       <c r="AE26" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF26" s="55"/>
     </row>
-    <row r="27" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A27" s="52">
         <v>20</v>
       </c>
@@ -39239,11 +39199,11 @@
         <v>713</v>
       </c>
       <c r="AE27" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF27" s="55"/>
     </row>
-    <row r="28" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A28" s="52">
         <v>21</v>
       </c>
@@ -39341,11 +39301,11 @@
         <v>659</v>
       </c>
       <c r="AE28" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF28" s="55"/>
     </row>
-    <row r="29" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A29" s="52">
         <v>22</v>
       </c>
@@ -39443,11 +39403,11 @@
         <v>674</v>
       </c>
       <c r="AE29" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF29" s="55"/>
     </row>
-    <row r="30" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A30" s="52">
         <v>23</v>
       </c>
@@ -39468,7 +39428,7 @@
       </c>
       <c r="G30" s="63"/>
       <c r="H30" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I30" s="67">
         <v>16</v>
@@ -39478,37 +39438,37 @@
         <v>16</v>
       </c>
       <c r="K30" s="69" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L30" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="M30" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N30" s="69" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O30" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P30" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q30" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="R30" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="S30" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T30" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="U30" s="67">
         <v>6</v>
@@ -39518,20 +39478,20 @@
         <v>6</v>
       </c>
       <c r="W30" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="X30" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Y30" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z30" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AA30" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AB30" s="65">
         <f t="shared" si="6"/>
@@ -39545,11 +39505,11 @@
         <v>22</v>
       </c>
       <c r="AE30" s="114" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AF30" s="55"/>
     </row>
-    <row r="31" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A31" s="52">
         <v>24</v>
       </c>
@@ -39647,11 +39607,11 @@
         <v>664</v>
       </c>
       <c r="AE31" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF31" s="55"/>
     </row>
-    <row r="32" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A32" s="52">
         <v>25</v>
       </c>
@@ -39749,11 +39709,11 @@
         <v>691</v>
       </c>
       <c r="AE32" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF32" s="55"/>
     </row>
-    <row r="33" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A33" s="52">
         <v>26</v>
       </c>
@@ -39851,13 +39811,13 @@
         <v>581</v>
       </c>
       <c r="AE33" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF33" s="119" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
-    <row r="34" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A34" s="52">
         <v>27</v>
       </c>
@@ -39955,13 +39915,13 @@
         <v>616</v>
       </c>
       <c r="AE34" s="57" t="s">
+        <v>824</v>
+      </c>
+      <c r="AF34" s="119" t="s">
         <v>825</v>
       </c>
-      <c r="AF34" s="119" t="s">
-        <v>826</v>
-      </c>
     </row>
-    <row r="35" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A35" s="52">
         <v>28</v>
       </c>
@@ -40059,11 +40019,11 @@
         <v>561</v>
       </c>
       <c r="AE35" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF35" s="55"/>
     </row>
-    <row r="36" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A36" s="52">
         <v>29</v>
       </c>
@@ -40161,11 +40121,11 @@
         <v>624</v>
       </c>
       <c r="AE36" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF36" s="55"/>
     </row>
-    <row r="37" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A37" s="52">
         <v>30</v>
       </c>
@@ -40263,11 +40223,11 @@
         <v>643</v>
       </c>
       <c r="AE37" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF37" s="55"/>
     </row>
-    <row r="38" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A38" s="52">
         <v>31</v>
       </c>
@@ -40365,11 +40325,11 @@
         <v>620</v>
       </c>
       <c r="AE38" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF38" s="55"/>
     </row>
-    <row r="39" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A39" s="52">
         <v>32</v>
       </c>
@@ -40467,11 +40427,11 @@
         <v>605</v>
       </c>
       <c r="AE39" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF39" s="55"/>
     </row>
-    <row r="40" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A40" s="52">
         <v>33</v>
       </c>
@@ -40569,11 +40529,11 @@
         <v>596</v>
       </c>
       <c r="AE40" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF40" s="55"/>
     </row>
-    <row r="41" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A41" s="52">
         <v>34</v>
       </c>
@@ -40671,11 +40631,11 @@
         <v>725</v>
       </c>
       <c r="AE41" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF41" s="55"/>
     </row>
-    <row r="42" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A42" s="52">
         <v>35</v>
       </c>
@@ -40773,11 +40733,11 @@
         <v>599</v>
       </c>
       <c r="AE42" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF42" s="55"/>
     </row>
-    <row r="43" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A43" s="52">
         <v>36</v>
       </c>
@@ -40875,11 +40835,11 @@
         <v>603</v>
       </c>
       <c r="AE43" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF43" s="55"/>
     </row>
-    <row r="44" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A44" s="52">
         <v>37</v>
       </c>
@@ -40977,11 +40937,11 @@
         <v>620</v>
       </c>
       <c r="AE44" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF44" s="55"/>
     </row>
-    <row r="45" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A45" s="52">
         <v>38</v>
       </c>
@@ -41079,11 +41039,11 @@
         <v>668</v>
       </c>
       <c r="AE45" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF45" s="55"/>
     </row>
-    <row r="46" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A46" s="52">
         <v>39</v>
       </c>
@@ -41181,11 +41141,11 @@
         <v>647</v>
       </c>
       <c r="AE46" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF46" s="55"/>
     </row>
-    <row r="47" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A47" s="52">
         <v>40</v>
       </c>
@@ -41283,11 +41243,11 @@
         <v>691</v>
       </c>
       <c r="AE47" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF47" s="55"/>
     </row>
-    <row r="48" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A48" s="52">
         <v>41</v>
       </c>
@@ -41385,11 +41345,11 @@
         <v>671</v>
       </c>
       <c r="AE48" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF48" s="55"/>
     </row>
-    <row r="49" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A49" s="52">
         <v>42</v>
       </c>
@@ -41487,11 +41447,11 @@
         <v>565</v>
       </c>
       <c r="AE49" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF49" s="55"/>
     </row>
-    <row r="50" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" s="47" customFormat="1" ht="74.25" customHeight="1">
       <c r="A50" s="52">
         <v>43</v>
       </c>
@@ -41589,11 +41549,11 @@
         <v>654</v>
       </c>
       <c r="AE50" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF50" s="55"/>
     </row>
-    <row r="51" spans="1:32" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" ht="74.25" customHeight="1">
       <c r="A51" s="52">
         <v>44</v>
       </c>
@@ -41691,11 +41651,11 @@
         <v>650</v>
       </c>
       <c r="AE51" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF51" s="55"/>
     </row>
-    <row r="52" spans="1:32" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" ht="74.25" customHeight="1">
       <c r="A52" s="52">
         <v>45</v>
       </c>
@@ -41793,11 +41753,11 @@
         <v>643</v>
       </c>
       <c r="AE52" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF52" s="55"/>
     </row>
-    <row r="53" spans="1:32" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" ht="74.25" customHeight="1">
       <c r="A53" s="52">
         <v>46</v>
       </c>
@@ -41895,11 +41855,11 @@
         <v>664</v>
       </c>
       <c r="AE53" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF53" s="97"/>
     </row>
-    <row r="54" spans="1:32" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" ht="74.25" customHeight="1">
       <c r="A54" s="52">
         <v>47</v>
       </c>
@@ -41997,11 +41957,11 @@
         <v>648</v>
       </c>
       <c r="AE54" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF54" s="55"/>
     </row>
-    <row r="55" spans="1:32" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" ht="74.25" customHeight="1">
       <c r="A55" s="52">
         <v>48</v>
       </c>
@@ -42099,18 +42059,20 @@
         <v>718</v>
       </c>
       <c r="AE55" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF55" s="55"/>
     </row>
-    <row r="58" spans="1:32" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="201"/>
-      <c r="C58" s="201"/>
-      <c r="D58" s="201"/>
-      <c r="E58" s="201"/>
+    <row r="58" spans="1:32" ht="39.75" customHeight="1">
+      <c r="B58" s="200"/>
+      <c r="C58" s="200"/>
+      <c r="D58" s="200"/>
+      <c r="E58" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="A2:AF2"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="B58:E58"/>
@@ -42126,8 +42088,6 @@
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J55 P8:P55 M8:M55">
     <cfRule type="cellIs" dxfId="18" priority="17" stopIfTrue="1" operator="lessThan">
@@ -42178,190 +42138,190 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G4" sqref="A4:IV4"/>
+    <sheetView topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="29" max="29" width="16.5703125" customWidth="1"/>
+    <col min="2" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="29" max="29" width="16.5546875" customWidth="1"/>
     <col min="30" max="30" width="18" customWidth="1"/>
-    <col min="31" max="31" width="23.7109375" customWidth="1"/>
-    <col min="32" max="32" width="32.42578125" customWidth="1"/>
+    <col min="31" max="31" width="23.6640625" customWidth="1"/>
+    <col min="32" max="32" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="200" t="s">
+    <row r="1" spans="1:32" ht="48" customHeight="1">
+      <c r="A1" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="200"/>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="200"/>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="200"/>
-      <c r="AA1" s="200"/>
-      <c r="AB1" s="200"/>
-      <c r="AC1" s="200"/>
-      <c r="AD1" s="200"/>
-      <c r="AE1" s="200"/>
-      <c r="AF1" s="200"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="199"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="199"/>
+      <c r="AA1" s="199"/>
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="199"/>
+      <c r="AD1" s="199"/>
+      <c r="AE1" s="199"/>
+      <c r="AF1" s="199"/>
     </row>
-    <row r="2" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="200" t="s">
+    <row r="2" spans="1:32" ht="48" customHeight="1">
+      <c r="A2" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="200"/>
-      <c r="AB2" s="200"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="200"/>
-      <c r="AF2" s="200"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
     </row>
-    <row r="3" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="48" customHeight="1">
       <c r="A3" s="202" t="s">
-        <v>847</v>
-      </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="199"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="199"/>
-      <c r="AA3" s="199"/>
-      <c r="AB3" s="199"/>
-      <c r="AC3" s="199"/>
-      <c r="AD3" s="199"/>
-      <c r="AE3" s="199"/>
-      <c r="AF3" s="199"/>
+        <v>846</v>
+      </c>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="201"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="201"/>
+      <c r="P3" s="201"/>
+      <c r="Q3" s="201"/>
+      <c r="R3" s="201"/>
+      <c r="S3" s="201"/>
+      <c r="T3" s="201"/>
+      <c r="U3" s="201"/>
+      <c r="V3" s="201"/>
+      <c r="W3" s="201"/>
+      <c r="X3" s="201"/>
+      <c r="Y3" s="201"/>
+      <c r="Z3" s="201"/>
+      <c r="AA3" s="201"/>
+      <c r="AB3" s="201"/>
+      <c r="AC3" s="201"/>
+      <c r="AD3" s="201"/>
+      <c r="AE3" s="201"/>
+      <c r="AF3" s="201"/>
     </row>
-    <row r="4" spans="1:32" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="180" t="s">
+    <row r="4" spans="1:32" ht="113.25" customHeight="1">
+      <c r="A4" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="180" t="s">
+      <c r="D4" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="187" t="s">
+      <c r="E4" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="187" t="s">
+      <c r="F4" s="183" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="179" t="s">
+      <c r="H4" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179" t="s">
-        <v>839</v>
-      </c>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179" t="s">
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185" t="s">
+        <v>838</v>
+      </c>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="179"/>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="182" t="s">
+      <c r="O4" s="185"/>
+      <c r="P4" s="185"/>
+      <c r="Q4" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="183"/>
-      <c r="S4" s="184"/>
-      <c r="T4" s="179" t="s">
+      <c r="R4" s="187"/>
+      <c r="S4" s="188"/>
+      <c r="T4" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="U4" s="179"/>
-      <c r="V4" s="179"/>
-      <c r="W4" s="182" t="s">
+      <c r="U4" s="185"/>
+      <c r="V4" s="185"/>
+      <c r="W4" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="183"/>
-      <c r="Y4" s="184"/>
-      <c r="Z4" s="179" t="s">
+      <c r="X4" s="187"/>
+      <c r="Y4" s="188"/>
+      <c r="Z4" s="185" t="s">
         <v>43</v>
       </c>
-      <c r="AA4" s="179"/>
-      <c r="AB4" s="179"/>
+      <c r="AA4" s="185"/>
+      <c r="AB4" s="185"/>
       <c r="AC4" s="115" t="s">
         <v>30</v>
       </c>
@@ -42375,13 +42335,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="180"/>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
+    <row r="5" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A5" s="181"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
       <c r="G5" s="5"/>
       <c r="H5" s="39" t="s">
         <v>6</v>
@@ -42451,13 +42411,13 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="37"/>
     </row>
-    <row r="6" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="180"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
+    <row r="6" spans="1:32" ht="38.25" customHeight="1">
+      <c r="A6" s="181"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
       <c r="G6" s="74" t="s">
         <v>2</v>
       </c>
@@ -42541,13 +42501,13 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="28"/>
     </row>
-    <row r="7" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="181"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
+    <row r="7" spans="1:32" ht="38.25" customHeight="1">
+      <c r="A7" s="182"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
       <c r="G7" s="76" t="s">
         <v>3</v>
       </c>
@@ -42607,7 +42567,7 @@
       <c r="AE7" s="6"/>
       <c r="AF7" s="38"/>
     </row>
-    <row r="8" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="72" customHeight="1">
       <c r="A8" s="52">
         <v>1</v>
       </c>
@@ -42705,11 +42665,11 @@
         <v>802</v>
       </c>
       <c r="AE8" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF8" s="55"/>
     </row>
-    <row r="9" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="72" customHeight="1">
       <c r="A9" s="52">
         <v>2</v>
       </c>
@@ -42807,11 +42767,11 @@
         <v>773</v>
       </c>
       <c r="AE9" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF9" s="55"/>
     </row>
-    <row r="10" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="72" customHeight="1">
       <c r="A10" s="52">
         <v>3</v>
       </c>
@@ -42907,11 +42867,11 @@
         <v>755</v>
       </c>
       <c r="AE10" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF10" s="55"/>
     </row>
-    <row r="11" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="72" customHeight="1">
       <c r="A11" s="52">
         <v>4</v>
       </c>
@@ -43009,11 +42969,11 @@
         <v>744</v>
       </c>
       <c r="AE11" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF11" s="55"/>
     </row>
-    <row r="12" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="72" customHeight="1">
       <c r="A12" s="52">
         <v>5</v>
       </c>
@@ -43111,11 +43071,11 @@
         <v>860</v>
       </c>
       <c r="AE12" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF12" s="55"/>
     </row>
-    <row r="13" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="72" customHeight="1">
       <c r="A13" s="52">
         <v>6</v>
       </c>
@@ -43211,11 +43171,11 @@
         <v>712</v>
       </c>
       <c r="AE13" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF13" s="55"/>
     </row>
-    <row r="14" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="72" customHeight="1">
       <c r="A14" s="52">
         <v>7</v>
       </c>
@@ -43313,11 +43273,11 @@
         <v>868</v>
       </c>
       <c r="AE14" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF14" s="55"/>
     </row>
-    <row r="15" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="72" customHeight="1">
       <c r="A15" s="52">
         <v>8</v>
       </c>
@@ -43415,11 +43375,11 @@
         <v>822</v>
       </c>
       <c r="AE15" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF15" s="55"/>
     </row>
-    <row r="16" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="72" customHeight="1">
       <c r="A16" s="52">
         <v>9</v>
       </c>
@@ -43515,11 +43475,11 @@
         <v>708</v>
       </c>
       <c r="AE16" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF16" s="55"/>
     </row>
-    <row r="17" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="72" customHeight="1">
       <c r="A17" s="52">
         <v>10</v>
       </c>
@@ -43617,11 +43577,11 @@
         <v>847</v>
       </c>
       <c r="AE17" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF17" s="55"/>
     </row>
-    <row r="18" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="72" customHeight="1">
       <c r="A18" s="52">
         <v>11</v>
       </c>
@@ -43719,11 +43679,11 @@
         <v>774</v>
       </c>
       <c r="AE18" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF18" s="55"/>
     </row>
-    <row r="19" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="72" customHeight="1">
       <c r="A19" s="52">
         <v>12</v>
       </c>
@@ -43821,11 +43781,11 @@
         <v>852</v>
       </c>
       <c r="AE19" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF19" s="55"/>
     </row>
-    <row r="20" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="72" customHeight="1">
       <c r="A20" s="52">
         <v>13</v>
       </c>
@@ -43921,11 +43881,11 @@
         <v>764</v>
       </c>
       <c r="AE20" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF20" s="55"/>
     </row>
-    <row r="21" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="72" customHeight="1">
       <c r="A21" s="52">
         <v>14</v>
       </c>
@@ -44023,11 +43983,11 @@
         <v>880</v>
       </c>
       <c r="AE21" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF21" s="55"/>
     </row>
-    <row r="22" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="72" customHeight="1">
       <c r="A22" s="52">
         <v>15</v>
       </c>
@@ -44123,11 +44083,11 @@
         <v>667</v>
       </c>
       <c r="AE22" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF22" s="55"/>
     </row>
-    <row r="23" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="72" customHeight="1">
       <c r="A23" s="52">
         <v>16</v>
       </c>
@@ -44158,14 +44118,14 @@
         <v>167</v>
       </c>
       <c r="K23" s="69">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L23" s="67">
         <v>74</v>
       </c>
       <c r="M23" s="65">
         <f t="shared" si="1"/>
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="N23" s="69">
         <v>89</v>
@@ -44222,14 +44182,14 @@
       </c>
       <c r="AD23" s="65">
         <f t="shared" si="7"/>
-        <v>817</v>
+        <v>877</v>
       </c>
       <c r="AE23" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF23" s="55"/>
     </row>
-    <row r="24" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="72" customHeight="1">
       <c r="A24" s="52">
         <v>17</v>
       </c>
@@ -44325,11 +44285,11 @@
         <v>616</v>
       </c>
       <c r="AE24" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF24" s="55"/>
     </row>
-    <row r="25" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="72" customHeight="1">
       <c r="A25" s="52">
         <v>18</v>
       </c>
@@ -44425,11 +44385,11 @@
         <v>666</v>
       </c>
       <c r="AE25" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF25" s="55"/>
     </row>
-    <row r="26" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="72" customHeight="1">
       <c r="A26" s="52">
         <v>19</v>
       </c>
@@ -44525,11 +44485,11 @@
         <v>717</v>
       </c>
       <c r="AE26" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF26" s="55"/>
     </row>
-    <row r="27" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="72" customHeight="1">
       <c r="A27" s="52">
         <v>20</v>
       </c>
@@ -44625,11 +44585,11 @@
         <v>730</v>
       </c>
       <c r="AE27" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF27" s="55"/>
     </row>
-    <row r="28" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="72" customHeight="1">
       <c r="A28" s="52">
         <v>21</v>
       </c>
@@ -44727,11 +44687,11 @@
         <v>820</v>
       </c>
       <c r="AE28" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF28" s="55"/>
     </row>
-    <row r="29" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="72" customHeight="1">
       <c r="A29" s="52">
         <v>22</v>
       </c>
@@ -44829,11 +44789,11 @@
         <v>846</v>
       </c>
       <c r="AE29" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF29" s="55"/>
     </row>
-    <row r="30" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="72" customHeight="1">
       <c r="A30" s="52">
         <v>23</v>
       </c>
@@ -44931,11 +44891,11 @@
         <v>841</v>
       </c>
       <c r="AE30" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF30" s="55"/>
     </row>
-    <row r="31" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="72" customHeight="1">
       <c r="A31" s="52">
         <v>24</v>
       </c>
@@ -45033,11 +44993,11 @@
         <v>846</v>
       </c>
       <c r="AE31" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF31" s="55"/>
     </row>
-    <row r="32" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="72" customHeight="1">
       <c r="A32" s="52">
         <v>25</v>
       </c>
@@ -45133,11 +45093,11 @@
         <v>772</v>
       </c>
       <c r="AE32" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF32" s="55"/>
     </row>
-    <row r="33" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="72" customHeight="1">
       <c r="A33" s="52">
         <v>26</v>
       </c>
@@ -45235,11 +45195,11 @@
         <v>832</v>
       </c>
       <c r="AE33" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF33" s="55"/>
     </row>
-    <row r="34" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" ht="72" customHeight="1">
       <c r="A34" s="52">
         <v>27</v>
       </c>
@@ -45335,11 +45295,11 @@
         <v>722</v>
       </c>
       <c r="AE34" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF34" s="55"/>
     </row>
-    <row r="35" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" ht="72" customHeight="1">
       <c r="A35" s="52">
         <v>28</v>
       </c>
@@ -45437,11 +45397,11 @@
         <v>761</v>
       </c>
       <c r="AE35" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF35" s="55"/>
     </row>
-    <row r="36" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" ht="72" customHeight="1">
       <c r="A36" s="52">
         <v>29</v>
       </c>
@@ -45539,11 +45499,11 @@
         <v>732</v>
       </c>
       <c r="AE36" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF36" s="55"/>
     </row>
-    <row r="37" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" ht="72" customHeight="1">
       <c r="A37" s="52">
         <v>30</v>
       </c>
@@ -45641,11 +45601,11 @@
         <v>607</v>
       </c>
       <c r="AE37" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF37" s="55"/>
     </row>
-    <row r="38" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" ht="72" customHeight="1">
       <c r="A38" s="52">
         <v>31</v>
       </c>
@@ -45743,11 +45703,11 @@
         <v>614</v>
       </c>
       <c r="AE38" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF38" s="55"/>
     </row>
-    <row r="39" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" ht="72" customHeight="1">
       <c r="A39" s="52">
         <v>32</v>
       </c>
@@ -45845,11 +45805,11 @@
         <v>756</v>
       </c>
       <c r="AE39" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF39" s="55"/>
     </row>
-    <row r="40" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" ht="72" customHeight="1">
       <c r="A40" s="52">
         <v>33</v>
       </c>
@@ -45947,11 +45907,11 @@
         <v>740</v>
       </c>
       <c r="AE40" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF40" s="55"/>
     </row>
-    <row r="41" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" ht="72" customHeight="1">
       <c r="A41" s="52">
         <v>34</v>
       </c>
@@ -46049,11 +46009,11 @@
         <v>811</v>
       </c>
       <c r="AE41" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF41" s="55"/>
     </row>
-    <row r="42" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" ht="72" customHeight="1">
       <c r="A42" s="52">
         <v>35</v>
       </c>
@@ -46151,11 +46111,11 @@
         <v>738</v>
       </c>
       <c r="AE42" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF42" s="55"/>
     </row>
-    <row r="43" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" ht="72" customHeight="1">
       <c r="A43" s="52">
         <v>36</v>
       </c>
@@ -46253,11 +46213,11 @@
         <v>809</v>
       </c>
       <c r="AE43" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF43" s="55"/>
     </row>
-    <row r="44" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" ht="72" customHeight="1">
       <c r="A44" s="52">
         <v>37</v>
       </c>
@@ -46353,11 +46313,11 @@
         <v>742</v>
       </c>
       <c r="AE44" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF44" s="55"/>
     </row>
-    <row r="45" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" ht="72" customHeight="1">
       <c r="A45" s="52">
         <v>38</v>
       </c>
@@ -46455,11 +46415,11 @@
         <v>736</v>
       </c>
       <c r="AE45" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF45" s="55"/>
     </row>
-    <row r="46" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" ht="72" customHeight="1">
       <c r="A46" s="52">
         <v>39</v>
       </c>
@@ -46555,11 +46515,11 @@
         <v>768</v>
       </c>
       <c r="AE46" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF46" s="55"/>
     </row>
-    <row r="47" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" ht="72" customHeight="1">
       <c r="A47" s="52">
         <v>40</v>
       </c>
@@ -46657,11 +46617,11 @@
         <v>852</v>
       </c>
       <c r="AE47" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF47" s="55"/>
     </row>
-    <row r="48" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" ht="72" customHeight="1">
       <c r="A48" s="52">
         <v>41</v>
       </c>
@@ -46759,11 +46719,11 @@
         <v>900</v>
       </c>
       <c r="AE48" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF48" s="55"/>
     </row>
-    <row r="49" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" ht="72" customHeight="1">
       <c r="A49" s="52">
         <v>42</v>
       </c>
@@ -46859,11 +46819,11 @@
         <v>606</v>
       </c>
       <c r="AE49" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF49" s="55"/>
     </row>
-    <row r="50" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" ht="72" customHeight="1">
       <c r="A50" s="52">
         <v>43</v>
       </c>
@@ -46961,11 +46921,11 @@
         <v>843</v>
       </c>
       <c r="AE50" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF50" s="55"/>
     </row>
-    <row r="51" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" ht="72" customHeight="1">
       <c r="A51" s="52">
         <v>44</v>
       </c>
@@ -47063,11 +47023,11 @@
         <v>827</v>
       </c>
       <c r="AE51" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF51" s="55"/>
     </row>
-    <row r="52" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" ht="72" customHeight="1">
       <c r="A52" s="52">
         <v>45</v>
       </c>
@@ -47165,11 +47125,11 @@
         <v>837</v>
       </c>
       <c r="AE52" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF52" s="55"/>
     </row>
-    <row r="53" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" ht="72" customHeight="1">
       <c r="A53" s="52">
         <v>46</v>
       </c>
@@ -47265,11 +47225,11 @@
         <v>685</v>
       </c>
       <c r="AE53" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF53" s="97"/>
     </row>
-    <row r="54" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" ht="72" customHeight="1">
       <c r="A54" s="52">
         <v>47</v>
       </c>
@@ -47367,11 +47327,11 @@
         <v>822</v>
       </c>
       <c r="AE54" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF54" s="55"/>
     </row>
-    <row r="55" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" ht="72" customHeight="1">
       <c r="A55" s="52">
         <v>48</v>
       </c>
@@ -47469,11 +47429,11 @@
         <v>659</v>
       </c>
       <c r="AE55" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF55" s="55"/>
     </row>
-    <row r="56" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" ht="72" customHeight="1">
       <c r="A56" s="52">
         <v>49</v>
       </c>
@@ -47569,11 +47529,11 @@
         <v>710</v>
       </c>
       <c r="AE56" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF56" s="79"/>
     </row>
-    <row r="57" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" ht="72" customHeight="1">
       <c r="A57" s="52">
         <v>50</v>
       </c>
@@ -47671,11 +47631,11 @@
         <v>769</v>
       </c>
       <c r="AE57" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF57" s="79"/>
     </row>
-    <row r="58" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" ht="72" customHeight="1">
       <c r="A58" s="52">
         <v>51</v>
       </c>
@@ -47773,11 +47733,11 @@
         <v>838</v>
       </c>
       <c r="AE58" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF58" s="79"/>
     </row>
-    <row r="59" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" ht="72" customHeight="1">
       <c r="A59" s="52">
         <v>52</v>
       </c>
@@ -47875,11 +47835,11 @@
         <v>767</v>
       </c>
       <c r="AE59" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF59" s="79"/>
     </row>
-    <row r="60" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" ht="72" customHeight="1">
       <c r="A60" s="52">
         <v>53</v>
       </c>
@@ -47977,11 +47937,11 @@
         <v>811</v>
       </c>
       <c r="AE60" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF60" s="79"/>
     </row>
-    <row r="61" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" ht="72" customHeight="1">
       <c r="A61" s="52">
         <v>54</v>
       </c>
@@ -48077,11 +48037,11 @@
         <v>751</v>
       </c>
       <c r="AE61" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF61" s="79"/>
     </row>
-    <row r="62" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" ht="72" customHeight="1">
       <c r="A62" s="52">
         <v>55</v>
       </c>
@@ -48179,11 +48139,11 @@
         <v>777</v>
       </c>
       <c r="AE62" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF62" s="79"/>
     </row>
-    <row r="63" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" ht="72" customHeight="1">
       <c r="A63" s="52">
         <v>56</v>
       </c>
@@ -48281,11 +48241,11 @@
         <v>847</v>
       </c>
       <c r="AE63" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF63" s="79"/>
     </row>
-    <row r="64" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" ht="72" customHeight="1">
       <c r="A64" s="52">
         <v>57</v>
       </c>
@@ -48381,11 +48341,11 @@
         <v>759</v>
       </c>
       <c r="AE64" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF64" s="79"/>
     </row>
-    <row r="65" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" ht="72" customHeight="1">
       <c r="A65" s="52">
         <v>58</v>
       </c>
@@ -48481,11 +48441,11 @@
         <v>611</v>
       </c>
       <c r="AE65" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF65" s="79"/>
     </row>
-    <row r="66" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" ht="72" customHeight="1">
       <c r="A66" s="52">
         <v>59</v>
       </c>
@@ -48556,7 +48516,7 @@
         <v>26</v>
       </c>
       <c r="W66" s="69" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="X66" s="69">
         <v>22</v>
@@ -48583,13 +48543,13 @@
         <v>670</v>
       </c>
       <c r="AE66" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF66" s="118" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" ht="72" customHeight="1">
       <c r="A67" s="52">
         <v>60</v>
       </c>
@@ -48685,11 +48645,11 @@
         <v>758</v>
       </c>
       <c r="AE67" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF67" s="79"/>
     </row>
-    <row r="68" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" ht="72" customHeight="1">
       <c r="A68" s="52">
         <v>61</v>
       </c>
@@ -48787,17 +48747,12 @@
         <v>743</v>
       </c>
       <c r="AE68" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF68" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:AF2"/>
@@ -48809,6 +48764,11 @@
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J68 M8:M68">
     <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="lessThan">

--- a/public/dat/B. TECH. I SEM DEC 2020(COVID 19)(1).xlsx
+++ b/public/dat/B. TECH. I SEM DEC 2020(COVID 19)(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="11520" windowHeight="7872" activeTab="5"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="11520" windowHeight="7872" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="C S" sheetId="6" r:id="rId1"/>
@@ -3496,17 +3496,17 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4609,7 +4609,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F1C834-C9E6-4A52-968B-57591918EDBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8F1C834-C9E6-4A52-968B-57591918EDBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4669,7 +4669,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C7E6EF-06B4-41BB-AB50-97D39F55E95D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5C7E6EF-06B4-41BB-AB50-97D39F55E95D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12165,112 +12165,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="43" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="189"/>
-      <c r="O1" s="189"/>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="189"/>
-      <c r="S1" s="189"/>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="189"/>
-      <c r="AA1" s="189"/>
-      <c r="AB1" s="189"/>
-      <c r="AC1" s="189"/>
-      <c r="AD1" s="189"/>
-      <c r="AE1" s="189"/>
-      <c r="AF1" s="189"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
     </row>
     <row r="2" spans="1:32" s="43" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="189"/>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="189"/>
-      <c r="AD2" s="189"/>
-      <c r="AE2" s="189"/>
-      <c r="AF2" s="189"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="191"/>
+      <c r="R2" s="191"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="191"/>
+      <c r="U2" s="191"/>
+      <c r="V2" s="191"/>
+      <c r="W2" s="191"/>
+      <c r="X2" s="191"/>
+      <c r="Y2" s="191"/>
+      <c r="Z2" s="191"/>
+      <c r="AA2" s="191"/>
+      <c r="AB2" s="191"/>
+      <c r="AC2" s="191"/>
+      <c r="AD2" s="191"/>
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="191"/>
     </row>
     <row r="3" spans="1:32" s="43" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="190"/>
-      <c r="S3" s="190"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="190"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
-      <c r="Z3" s="190"/>
-      <c r="AA3" s="190"/>
-      <c r="AB3" s="190"/>
-      <c r="AC3" s="190"/>
-      <c r="AD3" s="190"/>
-      <c r="AE3" s="190"/>
-      <c r="AF3" s="190"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="192"/>
+      <c r="V3" s="192"/>
+      <c r="W3" s="192"/>
+      <c r="X3" s="192"/>
+      <c r="Y3" s="192"/>
+      <c r="Z3" s="192"/>
+      <c r="AA3" s="192"/>
+      <c r="AB3" s="192"/>
+      <c r="AC3" s="192"/>
+      <c r="AD3" s="192"/>
+      <c r="AE3" s="192"/>
+      <c r="AF3" s="192"/>
     </row>
     <row r="4" spans="1:32" ht="162.75" customHeight="1">
       <c r="A4" s="181" t="s">
@@ -16886,19 +16886,14 @@
       <c r="AF50" s="9"/>
     </row>
     <row r="53" spans="1:32" ht="34.5" customHeight="1">
-      <c r="B53" s="191"/>
-      <c r="C53" s="192"/>
-      <c r="D53" s="192"/>
-      <c r="E53" s="192"/>
-      <c r="F53" s="192"/>
+      <c r="B53" s="189"/>
+      <c r="C53" s="190"/>
+      <c r="D53" s="190"/>
+      <c r="E53" s="190"/>
+      <c r="F53" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:AF2"/>
     <mergeCell ref="A3:AF3"/>
@@ -16911,6 +16906,11 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="Q8:Q49">
     <cfRule type="cellIs" dxfId="87" priority="21" stopIfTrue="1" operator="lessThan">
@@ -16966,7 +16966,7 @@
   <dimension ref="A1:AG59"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="22.5" customHeight="1"/>
@@ -16990,112 +16990,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="57" customHeight="1">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="189"/>
-      <c r="O1" s="189"/>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="189"/>
-      <c r="S1" s="189"/>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="189"/>
-      <c r="AA1" s="189"/>
-      <c r="AB1" s="189"/>
-      <c r="AC1" s="189"/>
-      <c r="AD1" s="189"/>
-      <c r="AE1" s="189"/>
-      <c r="AF1" s="189"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
     </row>
     <row r="2" spans="1:33" ht="57" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="189"/>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="189"/>
-      <c r="AD2" s="189"/>
-      <c r="AE2" s="189"/>
-      <c r="AF2" s="189"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="191"/>
+      <c r="R2" s="191"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="191"/>
+      <c r="U2" s="191"/>
+      <c r="V2" s="191"/>
+      <c r="W2" s="191"/>
+      <c r="X2" s="191"/>
+      <c r="Y2" s="191"/>
+      <c r="Z2" s="191"/>
+      <c r="AA2" s="191"/>
+      <c r="AB2" s="191"/>
+      <c r="AC2" s="191"/>
+      <c r="AD2" s="191"/>
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="191"/>
     </row>
     <row r="3" spans="1:33" ht="57" customHeight="1">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="192" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="190"/>
-      <c r="S3" s="190"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="190"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
-      <c r="Z3" s="190"/>
-      <c r="AA3" s="190"/>
-      <c r="AB3" s="190"/>
-      <c r="AC3" s="190"/>
-      <c r="AD3" s="190"/>
-      <c r="AE3" s="190"/>
-      <c r="AF3" s="190"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="192"/>
+      <c r="V3" s="192"/>
+      <c r="W3" s="192"/>
+      <c r="X3" s="192"/>
+      <c r="Y3" s="192"/>
+      <c r="Z3" s="192"/>
+      <c r="AA3" s="192"/>
+      <c r="AB3" s="192"/>
+      <c r="AC3" s="192"/>
+      <c r="AD3" s="192"/>
+      <c r="AE3" s="192"/>
+      <c r="AF3" s="192"/>
     </row>
     <row r="4" spans="1:33" ht="145.5" customHeight="1">
       <c r="A4" s="181" t="s">
@@ -17732,11 +17732,11 @@
         <v>94</v>
       </c>
       <c r="I11" s="67">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J11" s="65">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K11" s="67">
         <v>88</v>
@@ -17803,7 +17803,7 @@
       </c>
       <c r="AD11" s="65">
         <f t="shared" si="7"/>
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="AE11" s="54" t="s">
         <v>821</v>
@@ -22519,8 +22519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ70"/>
   <sheetViews>
-    <sheetView topLeftCell="C34" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="27" customHeight="1"/>
@@ -23194,13 +23194,15 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="K10" s="51"/>
+      <c r="K10" s="51">
+        <v>104</v>
+      </c>
       <c r="L10" s="51">
         <v>77</v>
       </c>
       <c r="M10" s="53">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="N10" s="51">
         <v>88</v>
@@ -23257,7 +23259,7 @@
       </c>
       <c r="AD10" s="53">
         <f t="shared" si="7"/>
-        <v>571</v>
+        <v>675</v>
       </c>
       <c r="AE10" s="40" t="s">
         <v>821</v>
@@ -25032,13 +25034,15 @@
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="K28" s="51"/>
+      <c r="K28" s="51">
+        <v>72</v>
+      </c>
       <c r="L28" s="51">
         <v>79</v>
       </c>
       <c r="M28" s="53">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="N28" s="51">
         <v>104</v>
@@ -25095,7 +25099,7 @@
       </c>
       <c r="AD28" s="53">
         <f t="shared" si="7"/>
-        <v>618</v>
+        <v>690</v>
       </c>
       <c r="AE28" s="40" t="s">
         <v>821</v>
@@ -29575,42 +29579,42 @@
       <c r="AH2" s="180"/>
     </row>
     <row r="3" spans="1:35" ht="63" customHeight="1">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="190"/>
-      <c r="S3" s="190"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="190"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
-      <c r="Z3" s="190"/>
-      <c r="AA3" s="190"/>
-      <c r="AB3" s="190"/>
-      <c r="AC3" s="190"/>
-      <c r="AD3" s="190"/>
-      <c r="AE3" s="190"/>
-      <c r="AF3" s="190"/>
-      <c r="AG3" s="190"/>
-      <c r="AH3" s="190"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="192"/>
+      <c r="V3" s="192"/>
+      <c r="W3" s="192"/>
+      <c r="X3" s="192"/>
+      <c r="Y3" s="192"/>
+      <c r="Z3" s="192"/>
+      <c r="AA3" s="192"/>
+      <c r="AB3" s="192"/>
+      <c r="AC3" s="192"/>
+      <c r="AD3" s="192"/>
+      <c r="AE3" s="192"/>
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="192"/>
+      <c r="AH3" s="192"/>
     </row>
     <row r="4" spans="1:35" ht="172.5" customHeight="1">
       <c r="A4" s="195" t="s">
@@ -34655,6 +34659,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="A1:AH1"/>
@@ -34671,7 +34676,6 @@
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <conditionalFormatting sqref="AB8:AB49 AE8:AE49">
     <cfRule type="cellIs" dxfId="52" priority="26" stopIfTrue="1" operator="lessThan">
@@ -34798,7 +34802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -34816,112 +34820,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="70.5" customHeight="1">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="189"/>
-      <c r="O1" s="189"/>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="189"/>
-      <c r="S1" s="189"/>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="189"/>
-      <c r="AA1" s="189"/>
-      <c r="AB1" s="189"/>
-      <c r="AC1" s="189"/>
-      <c r="AD1" s="189"/>
-      <c r="AE1" s="189"/>
-      <c r="AF1" s="189"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
     </row>
     <row r="2" spans="1:32" ht="70.5" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="189"/>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="189"/>
-      <c r="AD2" s="189"/>
-      <c r="AE2" s="189"/>
-      <c r="AF2" s="189"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="191"/>
+      <c r="R2" s="191"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="191"/>
+      <c r="U2" s="191"/>
+      <c r="V2" s="191"/>
+      <c r="W2" s="191"/>
+      <c r="X2" s="191"/>
+      <c r="Y2" s="191"/>
+      <c r="Z2" s="191"/>
+      <c r="AA2" s="191"/>
+      <c r="AB2" s="191"/>
+      <c r="AC2" s="191"/>
+      <c r="AD2" s="191"/>
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="191"/>
     </row>
     <row r="3" spans="1:32" ht="70.5" customHeight="1">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="192" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="190"/>
-      <c r="S3" s="190"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="190"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
-      <c r="Z3" s="190"/>
-      <c r="AA3" s="190"/>
-      <c r="AB3" s="190"/>
-      <c r="AC3" s="190"/>
-      <c r="AD3" s="190"/>
-      <c r="AE3" s="190"/>
-      <c r="AF3" s="190"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="192"/>
+      <c r="V3" s="192"/>
+      <c r="W3" s="192"/>
+      <c r="X3" s="192"/>
+      <c r="Y3" s="192"/>
+      <c r="Z3" s="192"/>
+      <c r="AA3" s="192"/>
+      <c r="AB3" s="192"/>
+      <c r="AC3" s="192"/>
+      <c r="AD3" s="192"/>
+      <c r="AE3" s="192"/>
+      <c r="AF3" s="192"/>
     </row>
     <row r="4" spans="1:32" ht="144.75" customHeight="1">
       <c r="A4" s="181" t="s">
@@ -36734,7 +36738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF58"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="C30" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
@@ -42071,6 +42075,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="A2:AF2"/>
@@ -42087,7 +42092,6 @@
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="E4:E7"/>
-    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J55 P8:P55 M8:M55">
     <cfRule type="cellIs" dxfId="18" priority="17" stopIfTrue="1" operator="lessThan">

--- a/public/dat/B. TECH. I SEM DEC 2020(COVID 19)(1).xlsx
+++ b/public/dat/B. TECH. I SEM DEC 2020(COVID 19)(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="11520" windowHeight="7872" activeTab="3"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="11520" windowHeight="7872" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="C S" sheetId="6" r:id="rId1"/>
@@ -3496,17 +3496,17 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4609,7 +4609,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8F1C834-C9E6-4A52-968B-57591918EDBF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F1C834-C9E6-4A52-968B-57591918EDBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4669,7 +4669,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5C7E6EF-06B4-41BB-AB50-97D39F55E95D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C7E6EF-06B4-41BB-AB50-97D39F55E95D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5004,7 +5004,7 @@
   </sheetPr>
   <dimension ref="A1:AF72"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:AF3"/>
     </sheetView>
   </sheetViews>
@@ -12165,112 +12165,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="43" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="189" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="191"/>
-      <c r="AB1" s="191"/>
-      <c r="AC1" s="191"/>
-      <c r="AD1" s="191"/>
-      <c r="AE1" s="191"/>
-      <c r="AF1" s="191"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
+      <c r="AD1" s="189"/>
+      <c r="AE1" s="189"/>
+      <c r="AF1" s="189"/>
     </row>
     <row r="2" spans="1:32" s="43" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="191"/>
-      <c r="Q2" s="191"/>
-      <c r="R2" s="191"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="191"/>
-      <c r="U2" s="191"/>
-      <c r="V2" s="191"/>
-      <c r="W2" s="191"/>
-      <c r="X2" s="191"/>
-      <c r="Y2" s="191"/>
-      <c r="Z2" s="191"/>
-      <c r="AA2" s="191"/>
-      <c r="AB2" s="191"/>
-      <c r="AC2" s="191"/>
-      <c r="AD2" s="191"/>
-      <c r="AE2" s="191"/>
-      <c r="AF2" s="191"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="189"/>
+      <c r="O2" s="189"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="189"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="189"/>
+      <c r="AA2" s="189"/>
+      <c r="AB2" s="189"/>
+      <c r="AC2" s="189"/>
+      <c r="AD2" s="189"/>
+      <c r="AE2" s="189"/>
+      <c r="AF2" s="189"/>
     </row>
     <row r="3" spans="1:32" s="43" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="192"/>
-      <c r="V3" s="192"/>
-      <c r="W3" s="192"/>
-      <c r="X3" s="192"/>
-      <c r="Y3" s="192"/>
-      <c r="Z3" s="192"/>
-      <c r="AA3" s="192"/>
-      <c r="AB3" s="192"/>
-      <c r="AC3" s="192"/>
-      <c r="AD3" s="192"/>
-      <c r="AE3" s="192"/>
-      <c r="AF3" s="192"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="190"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="190"/>
+      <c r="S3" s="190"/>
+      <c r="T3" s="190"/>
+      <c r="U3" s="190"/>
+      <c r="V3" s="190"/>
+      <c r="W3" s="190"/>
+      <c r="X3" s="190"/>
+      <c r="Y3" s="190"/>
+      <c r="Z3" s="190"/>
+      <c r="AA3" s="190"/>
+      <c r="AB3" s="190"/>
+      <c r="AC3" s="190"/>
+      <c r="AD3" s="190"/>
+      <c r="AE3" s="190"/>
+      <c r="AF3" s="190"/>
     </row>
     <row r="4" spans="1:32" ht="162.75" customHeight="1">
       <c r="A4" s="181" t="s">
@@ -16886,14 +16886,19 @@
       <c r="AF50" s="9"/>
     </row>
     <row r="53" spans="1:32" ht="34.5" customHeight="1">
-      <c r="B53" s="189"/>
-      <c r="C53" s="190"/>
-      <c r="D53" s="190"/>
-      <c r="E53" s="190"/>
-      <c r="F53" s="190"/>
+      <c r="B53" s="191"/>
+      <c r="C53" s="192"/>
+      <c r="D53" s="192"/>
+      <c r="E53" s="192"/>
+      <c r="F53" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:AF2"/>
     <mergeCell ref="A3:AF3"/>
@@ -16906,11 +16911,6 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="Q8:Q49">
     <cfRule type="cellIs" dxfId="87" priority="21" stopIfTrue="1" operator="lessThan">
@@ -16990,112 +16990,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="57" customHeight="1">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="189" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="191"/>
-      <c r="AB1" s="191"/>
-      <c r="AC1" s="191"/>
-      <c r="AD1" s="191"/>
-      <c r="AE1" s="191"/>
-      <c r="AF1" s="191"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
+      <c r="AD1" s="189"/>
+      <c r="AE1" s="189"/>
+      <c r="AF1" s="189"/>
     </row>
     <row r="2" spans="1:33" ht="57" customHeight="1">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="191"/>
-      <c r="Q2" s="191"/>
-      <c r="R2" s="191"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="191"/>
-      <c r="U2" s="191"/>
-      <c r="V2" s="191"/>
-      <c r="W2" s="191"/>
-      <c r="X2" s="191"/>
-      <c r="Y2" s="191"/>
-      <c r="Z2" s="191"/>
-      <c r="AA2" s="191"/>
-      <c r="AB2" s="191"/>
-      <c r="AC2" s="191"/>
-      <c r="AD2" s="191"/>
-      <c r="AE2" s="191"/>
-      <c r="AF2" s="191"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="189"/>
+      <c r="O2" s="189"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="189"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="189"/>
+      <c r="AA2" s="189"/>
+      <c r="AB2" s="189"/>
+      <c r="AC2" s="189"/>
+      <c r="AD2" s="189"/>
+      <c r="AE2" s="189"/>
+      <c r="AF2" s="189"/>
     </row>
     <row r="3" spans="1:33" ht="57" customHeight="1">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="190" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="192"/>
-      <c r="V3" s="192"/>
-      <c r="W3" s="192"/>
-      <c r="X3" s="192"/>
-      <c r="Y3" s="192"/>
-      <c r="Z3" s="192"/>
-      <c r="AA3" s="192"/>
-      <c r="AB3" s="192"/>
-      <c r="AC3" s="192"/>
-      <c r="AD3" s="192"/>
-      <c r="AE3" s="192"/>
-      <c r="AF3" s="192"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="190"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="190"/>
+      <c r="S3" s="190"/>
+      <c r="T3" s="190"/>
+      <c r="U3" s="190"/>
+      <c r="V3" s="190"/>
+      <c r="W3" s="190"/>
+      <c r="X3" s="190"/>
+      <c r="Y3" s="190"/>
+      <c r="Z3" s="190"/>
+      <c r="AA3" s="190"/>
+      <c r="AB3" s="190"/>
+      <c r="AC3" s="190"/>
+      <c r="AD3" s="190"/>
+      <c r="AE3" s="190"/>
+      <c r="AF3" s="190"/>
     </row>
     <row r="4" spans="1:33" ht="145.5" customHeight="1">
       <c r="A4" s="181" t="s">
@@ -22519,7 +22519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="C25" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -29579,42 +29579,42 @@
       <c r="AH2" s="180"/>
     </row>
     <row r="3" spans="1:35" ht="63" customHeight="1">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="192"/>
-      <c r="V3" s="192"/>
-      <c r="W3" s="192"/>
-      <c r="X3" s="192"/>
-      <c r="Y3" s="192"/>
-      <c r="Z3" s="192"/>
-      <c r="AA3" s="192"/>
-      <c r="AB3" s="192"/>
-      <c r="AC3" s="192"/>
-      <c r="AD3" s="192"/>
-      <c r="AE3" s="192"/>
-      <c r="AF3" s="192"/>
-      <c r="AG3" s="192"/>
-      <c r="AH3" s="192"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="190"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="190"/>
+      <c r="S3" s="190"/>
+      <c r="T3" s="190"/>
+      <c r="U3" s="190"/>
+      <c r="V3" s="190"/>
+      <c r="W3" s="190"/>
+      <c r="X3" s="190"/>
+      <c r="Y3" s="190"/>
+      <c r="Z3" s="190"/>
+      <c r="AA3" s="190"/>
+      <c r="AB3" s="190"/>
+      <c r="AC3" s="190"/>
+      <c r="AD3" s="190"/>
+      <c r="AE3" s="190"/>
+      <c r="AF3" s="190"/>
+      <c r="AG3" s="190"/>
+      <c r="AH3" s="190"/>
     </row>
     <row r="4" spans="1:35" ht="172.5" customHeight="1">
       <c r="A4" s="195" t="s">
@@ -34659,6 +34659,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:V4"/>
@@ -34675,7 +34676,6 @@
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="AB8:AB49 AE8:AE49">
     <cfRule type="cellIs" dxfId="52" priority="26" stopIfTrue="1" operator="lessThan">
@@ -34820,112 +34820,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="70.5" customHeight="1">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="189" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="191"/>
-      <c r="AB1" s="191"/>
-      <c r="AC1" s="191"/>
-      <c r="AD1" s="191"/>
-      <c r="AE1" s="191"/>
-      <c r="AF1" s="191"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
+      <c r="AD1" s="189"/>
+      <c r="AE1" s="189"/>
+      <c r="AF1" s="189"/>
     </row>
     <row r="2" spans="1:32" ht="70.5" customHeight="1">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="191"/>
-      <c r="Q2" s="191"/>
-      <c r="R2" s="191"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="191"/>
-      <c r="U2" s="191"/>
-      <c r="V2" s="191"/>
-      <c r="W2" s="191"/>
-      <c r="X2" s="191"/>
-      <c r="Y2" s="191"/>
-      <c r="Z2" s="191"/>
-      <c r="AA2" s="191"/>
-      <c r="AB2" s="191"/>
-      <c r="AC2" s="191"/>
-      <c r="AD2" s="191"/>
-      <c r="AE2" s="191"/>
-      <c r="AF2" s="191"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="189"/>
+      <c r="O2" s="189"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="189"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="189"/>
+      <c r="AA2" s="189"/>
+      <c r="AB2" s="189"/>
+      <c r="AC2" s="189"/>
+      <c r="AD2" s="189"/>
+      <c r="AE2" s="189"/>
+      <c r="AF2" s="189"/>
     </row>
     <row r="3" spans="1:32" ht="70.5" customHeight="1">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="192"/>
-      <c r="V3" s="192"/>
-      <c r="W3" s="192"/>
-      <c r="X3" s="192"/>
-      <c r="Y3" s="192"/>
-      <c r="Z3" s="192"/>
-      <c r="AA3" s="192"/>
-      <c r="AB3" s="192"/>
-      <c r="AC3" s="192"/>
-      <c r="AD3" s="192"/>
-      <c r="AE3" s="192"/>
-      <c r="AF3" s="192"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="190"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="190"/>
+      <c r="S3" s="190"/>
+      <c r="T3" s="190"/>
+      <c r="U3" s="190"/>
+      <c r="V3" s="190"/>
+      <c r="W3" s="190"/>
+      <c r="X3" s="190"/>
+      <c r="Y3" s="190"/>
+      <c r="Z3" s="190"/>
+      <c r="AA3" s="190"/>
+      <c r="AB3" s="190"/>
+      <c r="AC3" s="190"/>
+      <c r="AD3" s="190"/>
+      <c r="AE3" s="190"/>
+      <c r="AF3" s="190"/>
     </row>
     <row r="4" spans="1:32" ht="144.75" customHeight="1">
       <c r="A4" s="181" t="s">
@@ -42075,11 +42075,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="A1:AF1"/>
     <mergeCell ref="B58:E58"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:V4"/>
@@ -42088,10 +42083,15 @@
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="C4:C7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="A2:AF2"/>
+    <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A3:AF3"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="E4:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J55 P8:P55 M8:M55">
     <cfRule type="cellIs" dxfId="18" priority="17" stopIfTrue="1" operator="lessThan">
@@ -42145,8 +42145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -43819,13 +43819,15 @@
         <f t="shared" si="0"/>
         <v>161</v>
       </c>
-      <c r="K20" s="69"/>
+      <c r="K20" s="69">
+        <v>92</v>
+      </c>
       <c r="L20" s="67">
         <v>80</v>
       </c>
       <c r="M20" s="65">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="N20" s="69">
         <v>87</v>
@@ -43882,7 +43884,7 @@
       </c>
       <c r="AD20" s="65">
         <f t="shared" si="7"/>
-        <v>764</v>
+        <v>856</v>
       </c>
       <c r="AE20" s="54" t="s">
         <v>821</v>
